--- a/mainapp/mappy/항구 근처 가게.xlsx
+++ b/mainapp/mappy/항구 근처 가게.xlsx
@@ -14,15 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$199</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="239">
   <si>
     <t>선착장</t>
   </si>
@@ -60,27 +57,6 @@
     <t>음식점 &gt; 양식</t>
   </si>
   <si>
-    <t>요트크럽</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 구내식당</t>
-  </si>
-  <si>
-    <t>부산해양경찰서 구내식당</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 한식 &gt; 해물,생선 &gt; 게,대게</t>
-  </si>
-  <si>
-    <t>아일랜드크랩</t>
-  </si>
-  <si>
-    <t>오션라운지</t>
-  </si>
-  <si>
-    <t>슬로우가든 부산영도점</t>
-  </si>
-  <si>
     <t>바베큐엘</t>
   </si>
   <si>
@@ -90,714 +66,645 @@
     <t>해양푸드코트</t>
   </si>
   <si>
+    <t>음식점 &gt; 한식 &gt; 육류,고기</t>
+  </si>
+  <si>
+    <t>영도세기</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 한식 &gt; 해물,생선 &gt; 추어</t>
+  </si>
+  <si>
+    <t>창녕추어탕 엄나무백숙</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 한식 &gt; 국수 &gt; 칼국수</t>
+  </si>
+  <si>
+    <t>현풍닭칼국수 부산영도점</t>
+  </si>
+  <si>
+    <t>가든토로</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 곰탕,설렁탕</t>
+  </si>
+  <si>
+    <t>소문난큰집꼬리곰탕</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 찌개,전골</t>
+  </si>
+  <si>
+    <t>좋은자리의정부식부대찌개</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 한식 &gt; 백반,가정식</t>
+  </si>
+  <si>
+    <t>이유가</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 한식 &gt; 굴</t>
+  </si>
+  <si>
+    <t>석화정</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 한식 &gt; 조개</t>
+  </si>
+  <si>
+    <t>올바릇식당 영도점</t>
+  </si>
+  <si>
+    <t>카페</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 카페</t>
+  </si>
+  <si>
+    <t>에젤커피 부산점</t>
+  </si>
+  <si>
+    <t>316카페이룸</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 카페 &gt; 커피전문점 &gt; 더리터</t>
+  </si>
+  <si>
+    <t>더리터 해양박물관점</t>
+  </si>
+  <si>
+    <t>카페385</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 카페 &gt; 커피전문점</t>
+  </si>
+  <si>
+    <t>게으른고양이</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 카페 &gt; 테마카페 &gt; 디저트카페</t>
+  </si>
+  <si>
+    <t>피아크 카페엔베이커리</t>
+  </si>
+  <si>
+    <t>더리터 영도동삼점</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 카페 &gt; 커피전문점 &gt; 텐퍼센트커피</t>
+  </si>
+  <si>
+    <t>텐퍼센트커피 영도미라주점</t>
+  </si>
+  <si>
+    <t>자스민커피</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 카페 &gt; 테마카페 &gt; 무인카페</t>
+  </si>
+  <si>
+    <t>커피매니아</t>
+  </si>
+  <si>
+    <t>김재성베이커리카페</t>
+  </si>
+  <si>
+    <t>콴도의캔커피</t>
+  </si>
+  <si>
+    <t>코야커피</t>
+  </si>
+  <si>
+    <t>관광명소</t>
+  </si>
+  <si>
+    <t>여행 &gt; 관광,명소 &gt; 도보여행 &gt; 갈맷길</t>
+  </si>
+  <si>
+    <t>갈맷길3코스3구간 종점인증대</t>
+  </si>
+  <si>
+    <t>여행 &gt; 관광,명소 &gt; 테마파크 &gt; 워터테마파크</t>
+  </si>
+  <si>
+    <t>마린어드벤처파크</t>
+  </si>
+  <si>
+    <t>여행 &gt; 관광,명소 &gt; 도보여행</t>
+  </si>
+  <si>
+    <t>동삼해수천로</t>
+  </si>
+  <si>
+    <t>남파랑길 2코스</t>
+  </si>
+  <si>
+    <t>[해운대]미포항</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 한식 &gt; 해물,생선 &gt; 회</t>
+  </si>
+  <si>
+    <t>미포25시회센타</t>
+  </si>
+  <si>
+    <t>해운대횟집</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 간식 &gt; 아이스크림</t>
+  </si>
+  <si>
+    <t>호랑이젤라떡</t>
+  </si>
+  <si>
+    <t>미포횟집</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 일식 &gt; 초밥,롤</t>
+  </si>
+  <si>
+    <t>꾼쿡스시&amp;요리</t>
+  </si>
+  <si>
+    <t>순양호</t>
+  </si>
+  <si>
+    <t>다미가횟집</t>
+  </si>
+  <si>
+    <t>미포칼국수</t>
+  </si>
+  <si>
+    <t>한마음회센타</t>
+  </si>
+  <si>
+    <t>마라도횟집</t>
+  </si>
+  <si>
+    <t>파파스시 해운대미포씨랜드본점</t>
+  </si>
+  <si>
+    <t>동백호</t>
+  </si>
+  <si>
+    <t>원양호</t>
+  </si>
+  <si>
+    <t>콩카페 해운대미포점</t>
+  </si>
+  <si>
+    <t>오아제부산</t>
+  </si>
+  <si>
+    <t>아슬란626</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 카페 &gt; 커피전문점 &gt; 컴포즈커피</t>
+  </si>
+  <si>
+    <t>컴포즈커피 해운대미포점</t>
+  </si>
+  <si>
+    <t>랑데자뷰</t>
+  </si>
+  <si>
+    <t>달다곰이</t>
+  </si>
+  <si>
+    <t>카페경아</t>
+  </si>
+  <si>
+    <t>엠스타커피</t>
+  </si>
+  <si>
+    <t>키쉬미뇽 해운대미포점</t>
+  </si>
+  <si>
+    <t>카페레빗</t>
+  </si>
+  <si>
+    <t>타이드</t>
+  </si>
+  <si>
+    <t>애코랜드</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 카페 &gt; 커피전문점 &gt; 스타벅스</t>
+  </si>
+  <si>
+    <t>스타벅스 해운대엑스더스카이점</t>
+  </si>
+  <si>
+    <t>리베먼트</t>
+  </si>
+  <si>
+    <t>여행 &gt; 관광,명소 &gt; 테마파크</t>
+  </si>
+  <si>
+    <t>해운대블루라인파크 미포정거장</t>
+  </si>
+  <si>
+    <t>여행 &gt; 관광,명소 &gt; 전망대</t>
+  </si>
+  <si>
+    <t>엑스더스카이</t>
+  </si>
+  <si>
+    <t>클럽디오아시스</t>
+  </si>
+  <si>
+    <t>여행 &gt; 관광,명소 &gt; 테마거리</t>
+  </si>
+  <si>
+    <t>달맞이미술의거리</t>
+  </si>
+  <si>
+    <t>갈맷길2코스1구간 시작인증대</t>
+  </si>
+  <si>
+    <t>문탠로드</t>
+  </si>
+  <si>
+    <t>여행 &gt; 관광,명소 &gt; 온천</t>
+  </si>
+  <si>
+    <t>파라다이스호텔 옥외온천</t>
+  </si>
+  <si>
+    <t>파라다이스호텔 부산 오션스파씨메르</t>
+  </si>
+  <si>
+    <t>송도탕</t>
+  </si>
+  <si>
+    <t>여행 &gt; 관광,명소 &gt; 테마거리 &gt; 먹자골목</t>
+  </si>
+  <si>
+    <t>해운대곰장어골목</t>
+  </si>
+  <si>
+    <t>해운대온천족욕탕</t>
+  </si>
+  <si>
+    <t>여행 &gt; 관광,명소 &gt; 산</t>
+  </si>
+  <si>
+    <t>와우산</t>
+  </si>
+  <si>
+    <t>[송도]암남항</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 한식 &gt; 해물,생선</t>
+  </si>
+  <si>
+    <t>해녀촌</t>
+  </si>
+  <si>
+    <t>부라보횟집</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 한식 &gt; 해물,생선 &gt; 조개</t>
+  </si>
+  <si>
+    <t>조새호 부산송도직영점</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 술집 &gt; 호프,요리주점 &gt; 백스비어</t>
+  </si>
+  <si>
+    <t>백스비어 부산송도점</t>
+  </si>
+  <si>
+    <t>곤포횟집</t>
+  </si>
+  <si>
+    <t>송도공원</t>
+  </si>
+  <si>
+    <t>다도횟집</t>
+  </si>
+  <si>
+    <t>테라스</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 치킨 &gt; 굽네치킨</t>
+  </si>
+  <si>
+    <t>굽네치킨 부산송도점</t>
+  </si>
+  <si>
+    <t>개미집 송도점</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 한식 &gt; 찌개,전골</t>
+  </si>
+  <si>
+    <t>모두의전골</t>
+  </si>
+  <si>
+    <t>로리에</t>
+  </si>
+  <si>
+    <t>파니니브런치 송도점</t>
+  </si>
+  <si>
+    <t>목스커피 MOX COFFEE</t>
+  </si>
+  <si>
+    <t>카페라떼르</t>
+  </si>
+  <si>
+    <t>암남길 벗과벗</t>
+  </si>
+  <si>
+    <t>빈스톡</t>
+  </si>
+  <si>
+    <t>텐퍼센트커피 암남공원로점</t>
+  </si>
+  <si>
+    <t>디아펠리즈</t>
+  </si>
+  <si>
+    <t>깔딱요기 송도점</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 카페 &gt; 커피전문점 &gt; 카페베네</t>
+  </si>
+  <si>
+    <t>카페베네 송도해수욕장점</t>
+  </si>
+  <si>
+    <t>송도해안볼레길</t>
+  </si>
+  <si>
+    <t>남파랑길 3코스</t>
+  </si>
+  <si>
+    <t>갈맷길 4코스1구간</t>
+  </si>
+  <si>
+    <t>진정산</t>
+  </si>
+  <si>
+    <t>여행 &gt; 관광,명소 &gt; 테마거리 &gt; 카페거리</t>
+  </si>
+  <si>
+    <t>송도카페거리</t>
+  </si>
+  <si>
+    <t>송도구름산책로 송도365</t>
+  </si>
+  <si>
+    <t>여행 &gt; 관광,명소 &gt; 섬</t>
+  </si>
+  <si>
+    <t>송도 거북섬</t>
+  </si>
+  <si>
+    <t>여행 &gt; 관광,명소 &gt; 해수욕장,해변</t>
+  </si>
+  <si>
+    <t>송도해수욕장</t>
+  </si>
+  <si>
+    <t>그린웨이서구일주로 1코스(송도해안볼레길)</t>
+  </si>
+  <si>
+    <t>백년송도골목</t>
+  </si>
+  <si>
+    <t>암남공원 해안산책로</t>
+  </si>
+  <si>
+    <t>[자갈치]남항유람선선착장</t>
+  </si>
+  <si>
+    <t>일성상회</t>
+  </si>
+  <si>
+    <t>뉴부산횟집</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 한식 &gt; 해물,생선 &gt; 장어</t>
+  </si>
+  <si>
+    <t>고성거제할매집</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 분식</t>
+  </si>
+  <si>
+    <t>리라식당</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 중식 &gt; 중국요리</t>
+  </si>
+  <si>
+    <t>자갈치해물짬뽕</t>
+  </si>
+  <si>
+    <t>제일횟집</t>
+  </si>
+  <si>
+    <t>하동횟집</t>
+  </si>
+  <si>
+    <t>신경북상회</t>
+  </si>
+  <si>
+    <t>대구상회</t>
+  </si>
+  <si>
+    <t>갈매기횟집</t>
+  </si>
+  <si>
+    <t>사량도횟집</t>
+  </si>
+  <si>
+    <t>해왕상회</t>
+  </si>
+  <si>
+    <t>용궁횟집</t>
+  </si>
+  <si>
+    <t>자갈치커피상회</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 카페 &gt; 생과일전문점</t>
+  </si>
+  <si>
+    <t>고망고 남포점</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 카페 &gt; 커피전문점 &gt; 투썸플레이스</t>
+  </si>
+  <si>
+    <t>투썸플레이스 부산남포점</t>
+  </si>
+  <si>
+    <t>GI coffee</t>
+  </si>
+  <si>
+    <t>텐퍼센트커피 자갈치시장점</t>
+  </si>
+  <si>
+    <t>네루다커피</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 카페 &gt; 커피전문점 &gt; 하삼동커피</t>
+  </si>
+  <si>
+    <t>하삼동커피 남포점</t>
+  </si>
+  <si>
+    <t>카페라비아</t>
+  </si>
+  <si>
+    <t>카페밈</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 카페 &gt; 테마카페 &gt; 애견카페</t>
+  </si>
+  <si>
+    <t>까까로운</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 카페 &gt; 전통찻집</t>
+  </si>
+  <si>
+    <t>다해정</t>
+  </si>
+  <si>
+    <t>자갈치 곰장어 골목</t>
+  </si>
+  <si>
+    <t>엔터테이너거리</t>
+  </si>
+  <si>
+    <t>광복로쌈지골목길</t>
+  </si>
+  <si>
+    <t>용두산문화의거리</t>
+  </si>
+  <si>
+    <t>시티스폿</t>
+  </si>
+  <si>
+    <t>광복로패션거리</t>
+  </si>
+  <si>
+    <t>구둣방골목</t>
+  </si>
+  <si>
+    <t>고갈비골목</t>
+  </si>
+  <si>
+    <t>생선구이골목</t>
+  </si>
+  <si>
+    <t>BIFF거리</t>
+  </si>
+  <si>
+    <t>BIFF광장</t>
+  </si>
+  <si>
+    <t>영도다리목 생약건재상거리</t>
+  </si>
+  <si>
+    <t>광복동먹자골목</t>
+  </si>
+  <si>
+    <t>점바치골목</t>
+  </si>
+  <si>
+    <t>[기장]일광해수욕장</t>
+  </si>
+  <si>
+    <t>기장기칼</t>
+  </si>
+  <si>
     <t>음식점 &gt; 한식</t>
   </si>
   <si>
-    <t>국립해양박물관 식당</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 한식 &gt; 육류,고기</t>
-  </si>
-  <si>
-    <t>영도세기</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 한식 &gt; 해물,생선 &gt; 추어</t>
-  </si>
-  <si>
-    <t>창녕추어탕 엄나무백숙</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 중식 &gt; 중국요리</t>
-  </si>
-  <si>
-    <t>청하반점</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 양식 &gt; 피자</t>
-  </si>
-  <si>
-    <t>원플러스피자 영도점</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 한식 &gt; 국수 &gt; 칼국수</t>
-  </si>
-  <si>
-    <t>현풍닭칼국수 부산영도점</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 한식 &gt; 육류,고기 &gt; 닭요리 &gt; 삼계탕</t>
-  </si>
-  <si>
-    <t>초원의집</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 한식 &gt; 육류,고기 &gt; 족발,보쌈</t>
-  </si>
-  <si>
-    <t>장충동B&amp;F족발보쌈 영도점</t>
-  </si>
-  <si>
-    <t>카페</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 카페</t>
-  </si>
-  <si>
-    <t>에젤커피 부산점</t>
-  </si>
-  <si>
-    <t>316카페이룸</t>
-  </si>
-  <si>
-    <t>가정,생활 &gt; 여가시설 &gt; 보드카페</t>
-  </si>
-  <si>
-    <t>보드랑 3호점</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 카페 &gt; 커피전문점 &gt; 더리터</t>
-  </si>
-  <si>
-    <t>더리터 해양박물관점</t>
-  </si>
-  <si>
-    <t>카페385</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 카페 &gt; 커피전문점</t>
-  </si>
-  <si>
-    <t>게으른고양이</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 카페 &gt; 테마카페 &gt; 디저트카페</t>
-  </si>
-  <si>
-    <t>피아크 카페엔베이커리</t>
-  </si>
-  <si>
-    <t>더리터 영도동삼점</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 카페 &gt; 커피전문점 &gt; 텐퍼센트커피</t>
-  </si>
-  <si>
-    <t>텐퍼센트커피 영도미라주점</t>
-  </si>
-  <si>
-    <t>자스민커피</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 카페 &gt; 테마카페 &gt; 무인카페</t>
-  </si>
-  <si>
-    <t>커피매니아</t>
-  </si>
-  <si>
-    <t>김재성베이커리카페</t>
-  </si>
-  <si>
-    <t>콴도의캔커피</t>
-  </si>
-  <si>
-    <t>코야커피</t>
-  </si>
-  <si>
-    <t>토마스커피</t>
-  </si>
-  <si>
-    <t>관광명소</t>
-  </si>
-  <si>
-    <t>여행 &gt; 관광,명소 &gt; 도보여행 &gt; 갈맷길</t>
-  </si>
-  <si>
-    <t>갈맷길3코스3구간 종점인증대</t>
-  </si>
-  <si>
-    <t>여행 &gt; 관광,명소 &gt; 테마파크 &gt; 워터테마파크</t>
-  </si>
-  <si>
-    <t>마린어드벤처파크</t>
-  </si>
-  <si>
-    <t>여행 &gt; 관광,명소 &gt; 도보여행</t>
-  </si>
-  <si>
-    <t>동삼해수천로</t>
-  </si>
-  <si>
-    <t>남파랑길 2코스</t>
-  </si>
-  <si>
-    <t>[해운대]미포항</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 한식 &gt; 해물,생선 &gt; 회</t>
-  </si>
-  <si>
-    <t>미포25시회센타</t>
-  </si>
-  <si>
-    <t>해운대횟집</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 간식 &gt; 아이스크림</t>
-  </si>
-  <si>
-    <t>호랑이젤라떡</t>
-  </si>
-  <si>
-    <t>미포횟집</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 일식 &gt; 초밥,롤</t>
-  </si>
-  <si>
-    <t>꾼쿡스시&amp;요리</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 한식 &gt; 해물,생선</t>
-  </si>
-  <si>
-    <t>마린파크</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 한식 &gt; 해물,생선 &gt; 조개</t>
-  </si>
-  <si>
-    <t>미포2셰프조개</t>
-  </si>
-  <si>
-    <t>순양호</t>
-  </si>
-  <si>
-    <t>다미가횟집</t>
-  </si>
-  <si>
-    <t>미포칼국수</t>
-  </si>
-  <si>
-    <t>한마음회센타</t>
-  </si>
-  <si>
-    <t>마라도횟집</t>
-  </si>
-  <si>
-    <t>파파스시 해운대미포씨랜드본점</t>
-  </si>
-  <si>
-    <t>동백호</t>
-  </si>
-  <si>
-    <t>원양호</t>
-  </si>
-  <si>
-    <t>콩카페 해운대미포점</t>
-  </si>
-  <si>
-    <t>오아제부산</t>
-  </si>
-  <si>
-    <t>아슬란626</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 카페 &gt; 커피전문점 &gt; 컴포즈커피</t>
-  </si>
-  <si>
-    <t>컴포즈커피 해운대미포점</t>
-  </si>
-  <si>
-    <t>매직램프커피</t>
-  </si>
-  <si>
-    <t>랑데자뷰</t>
-  </si>
-  <si>
-    <t>달다곰이</t>
-  </si>
-  <si>
-    <t>카페경아</t>
-  </si>
-  <si>
-    <t>엠스타커피</t>
-  </si>
-  <si>
-    <t>키쉬미뇽 해운대미포점</t>
-  </si>
-  <si>
-    <t>카페레빗</t>
-  </si>
-  <si>
-    <t>타이드</t>
-  </si>
-  <si>
-    <t>애코랜드</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 카페 &gt; 커피전문점 &gt; 스타벅스</t>
-  </si>
-  <si>
-    <t>스타벅스 해운대엑스더스카이점</t>
-  </si>
-  <si>
-    <t>리베먼트</t>
-  </si>
-  <si>
-    <t>여행 &gt; 관광,명소 &gt; 테마파크</t>
-  </si>
-  <si>
-    <t>해운대블루라인파크 미포정거장</t>
-  </si>
-  <si>
-    <t>여행 &gt; 관광,명소 &gt; 전망대</t>
-  </si>
-  <si>
-    <t>엑스더스카이</t>
-  </si>
-  <si>
-    <t>클럽디오아시스</t>
-  </si>
-  <si>
-    <t>여행 &gt; 관광,명소 &gt; 테마거리</t>
-  </si>
-  <si>
-    <t>달맞이미술의거리</t>
-  </si>
-  <si>
-    <t>해운대로데오거리</t>
-  </si>
-  <si>
-    <t>갈맷길2코스1구간 시작인증대</t>
-  </si>
-  <si>
-    <t>문탠로드</t>
-  </si>
-  <si>
-    <t>여행 &gt; 관광,명소 &gt; 온천</t>
-  </si>
-  <si>
-    <t>파라다이스호텔 옥외온천</t>
-  </si>
-  <si>
-    <t>파라다이스호텔 부산 오션스파씨메르</t>
-  </si>
-  <si>
-    <t>송도탕</t>
-  </si>
-  <si>
-    <t>금호장온천</t>
-  </si>
-  <si>
-    <t>여행 &gt; 관광,명소 &gt; 테마거리 &gt; 먹자골목</t>
-  </si>
-  <si>
-    <t>해운대곰장어골목</t>
-  </si>
-  <si>
-    <t>해운대온천족욕탕</t>
-  </si>
-  <si>
-    <t>여행 &gt; 관광,명소 &gt; 산</t>
-  </si>
-  <si>
-    <t>와우산</t>
-  </si>
-  <si>
-    <t>[송도]암남항</t>
-  </si>
-  <si>
-    <t>해녀촌</t>
-  </si>
-  <si>
-    <t>부라보횟집</t>
-  </si>
-  <si>
-    <t>조새호 부산송도직영점</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 술집 &gt; 호프,요리주점 &gt; 백스비어</t>
-  </si>
-  <si>
-    <t>백스비어 부산송도점</t>
+    <t>해송집</t>
+  </si>
+  <si>
+    <t>일광수산맛집</t>
   </si>
   <si>
     <t>음식점 &gt; 치킨</t>
   </si>
   <si>
-    <t>치피떡 부산송도점</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 한식 &gt; 육류,고기 &gt; 오리</t>
-  </si>
-  <si>
-    <t>감나무집</t>
-  </si>
-  <si>
-    <t>곤포횟집</t>
-  </si>
-  <si>
-    <t>송도공원</t>
-  </si>
-  <si>
-    <t>대교산업 횟집</t>
-  </si>
-  <si>
-    <t>해도올</t>
-  </si>
-  <si>
-    <t>도미</t>
-  </si>
-  <si>
-    <t>다도횟집</t>
-  </si>
-  <si>
-    <t>테라스</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 치킨 &gt; 굽네치킨</t>
-  </si>
-  <si>
-    <t>굽네치킨 부산송도점</t>
-  </si>
-  <si>
-    <t>개미집 송도점</t>
+    <t>옛날통닭</t>
+  </si>
+  <si>
+    <t>이사부</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 한식 &gt; 곰탕</t>
+  </si>
+  <si>
+    <t>철마한우곰탕</t>
+  </si>
+  <si>
+    <t>어부밥상</t>
+  </si>
+  <si>
+    <t>일광소머리곰탕</t>
+  </si>
+  <si>
+    <t>한올</t>
+  </si>
+  <si>
+    <t>거인집</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 한식 &gt; 육류,고기 &gt; 갈비</t>
+  </si>
+  <si>
+    <t>마당쇠돼지갈비 일광점</t>
+  </si>
+  <si>
+    <t>큰손칼국수</t>
+  </si>
+  <si>
+    <t>한국돈은행</t>
+  </si>
+  <si>
+    <t>음식점 &gt; 한식 &gt; 육류,고기 &gt; 곱창,막창</t>
+  </si>
+  <si>
+    <t>몬난이양곱창</t>
+  </si>
+  <si>
+    <t>서가 산곰장어&amp;조개구이</t>
+  </si>
+  <si>
+    <t>일리단길</t>
+  </si>
+  <si>
+    <t>카페퀸</t>
+  </si>
+  <si>
+    <t>카페꼬막</t>
+  </si>
+  <si>
+    <t>라볼르</t>
+  </si>
+  <si>
+    <t>탄스비치</t>
+  </si>
+  <si>
+    <t>해와달커피</t>
   </si>
   <si>
     <t>음식점 &gt; 카페 &gt; 테마카페 &gt; 라이브카페</t>
   </si>
   <si>
-    <t>언덕위의하얀집</t>
-  </si>
-  <si>
-    <t>로리에</t>
-  </si>
-  <si>
-    <t>파니니브런치 송도점</t>
-  </si>
-  <si>
-    <t>갤러리커피숍</t>
-  </si>
-  <si>
-    <t>38도씨</t>
-  </si>
-  <si>
-    <t>목스커피 MOX COFFEE</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 카페 &gt; 커피전문점 &gt; 커피마마</t>
-  </si>
-  <si>
-    <t>커피마마 부산송도점</t>
-  </si>
-  <si>
-    <t>카페라떼르</t>
-  </si>
-  <si>
-    <t>카페화담</t>
-  </si>
-  <si>
-    <t>빈스톡</t>
-  </si>
-  <si>
-    <t>텐퍼센트커피 암남공원로점</t>
-  </si>
-  <si>
-    <t>디아펠리즈</t>
-  </si>
-  <si>
-    <t>깔딱요기 송도점</t>
-  </si>
-  <si>
-    <t>마이쏭</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 카페 &gt; 커피전문점 &gt; 카페베네</t>
-  </si>
-  <si>
-    <t>카페베네 송도해수욕장점</t>
-  </si>
-  <si>
-    <t>송도해안볼레길</t>
-  </si>
-  <si>
-    <t>남파랑길 3코스</t>
-  </si>
-  <si>
-    <t>갈맷길 4코스1구간</t>
-  </si>
-  <si>
-    <t>진정산</t>
-  </si>
-  <si>
-    <t>여행 &gt; 관광,명소 &gt; 테마거리 &gt; 카페거리</t>
-  </si>
-  <si>
-    <t>송도카페거리</t>
-  </si>
-  <si>
-    <t>송도구름산책로 송도365</t>
-  </si>
-  <si>
-    <t>여행 &gt; 관광,명소 &gt; 섬</t>
-  </si>
-  <si>
-    <t>송도 거북섬</t>
-  </si>
-  <si>
-    <t>여행 &gt; 관광,명소 &gt; 해수욕장,해변</t>
-  </si>
-  <si>
-    <t>송도해수욕장</t>
-  </si>
-  <si>
-    <t>그린웨이서구일주로 1코스(송도해안볼레길)</t>
-  </si>
-  <si>
-    <t>백년송도골목</t>
-  </si>
-  <si>
-    <t>암남공원 해안산책로</t>
-  </si>
-  <si>
-    <t>[자갈치]남항유람선선착장</t>
-  </si>
-  <si>
-    <t>수협식당</t>
-  </si>
-  <si>
-    <t>일성상회</t>
-  </si>
-  <si>
-    <t>뉴부산횟집</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 한식 &gt; 해물,생선 &gt; 장어</t>
-  </si>
-  <si>
-    <t>고성거제할매집</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 분식</t>
-  </si>
-  <si>
-    <t>리라식당</t>
-  </si>
-  <si>
-    <t>자갈치해물짬뽕</t>
-  </si>
-  <si>
-    <t>제일횟집</t>
-  </si>
-  <si>
-    <t>하동횟집</t>
-  </si>
-  <si>
-    <t>신경북상회</t>
-  </si>
-  <si>
-    <t>대구상회</t>
-  </si>
-  <si>
-    <t>갈매기횟집</t>
-  </si>
-  <si>
-    <t>사량도횟집</t>
-  </si>
-  <si>
-    <t>해왕상회</t>
-  </si>
-  <si>
-    <t>50년전통산곰장어원조집</t>
-  </si>
-  <si>
-    <t>용궁횟집</t>
-  </si>
-  <si>
-    <t>커피민</t>
-  </si>
-  <si>
-    <t>자갈치커피상회</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 카페 &gt; 생과일전문점</t>
-  </si>
-  <si>
-    <t>고망고 남포점</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 카페 &gt; 커피전문점 &gt; 투썸플레이스</t>
-  </si>
-  <si>
-    <t>투썸플레이스 부산남포점</t>
-  </si>
-  <si>
-    <t>얼리지언스</t>
-  </si>
-  <si>
-    <t>GI coffee</t>
-  </si>
-  <si>
-    <t>텐퍼센트커피 자갈치시장점</t>
-  </si>
-  <si>
-    <t>러브보트</t>
-  </si>
-  <si>
-    <t>네루다커피</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 카페 &gt; 커피전문점 &gt; 하삼동커피</t>
-  </si>
-  <si>
-    <t>하삼동커피 남포점</t>
-  </si>
-  <si>
-    <t>카페라비아</t>
-  </si>
-  <si>
-    <t>카페밈</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 카페 &gt; 전통찻집</t>
-  </si>
-  <si>
-    <t>소화방</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 카페 &gt; 테마카페 &gt; 애견카페</t>
-  </si>
-  <si>
-    <t>까까로운</t>
-  </si>
-  <si>
-    <t>다해정</t>
-  </si>
-  <si>
-    <t>자갈치 곰장어 골목</t>
-  </si>
-  <si>
-    <t>엔터테이너거리</t>
-  </si>
-  <si>
-    <t>광복로쌈지골목길</t>
-  </si>
-  <si>
-    <t>용두산문화의거리</t>
-  </si>
-  <si>
-    <t>시티스폿</t>
-  </si>
-  <si>
-    <t>광복로패션거리</t>
-  </si>
-  <si>
-    <t>구둣방골목</t>
-  </si>
-  <si>
-    <t>고갈비골목</t>
-  </si>
-  <si>
-    <t>생선구이골목</t>
-  </si>
-  <si>
-    <t>BIFF거리</t>
-  </si>
-  <si>
-    <t>BIFF광장</t>
-  </si>
-  <si>
-    <t>영도다리목 생약건재상거리</t>
-  </si>
-  <si>
-    <t>광복동먹자골목</t>
-  </si>
-  <si>
-    <t>남포동거리</t>
-  </si>
-  <si>
-    <t>점바치골목</t>
-  </si>
-  <si>
-    <t>[기장]일광해수욕장</t>
-  </si>
-  <si>
-    <t>기장기칼</t>
-  </si>
-  <si>
-    <t>해송집</t>
-  </si>
-  <si>
-    <t>일광수산맛집</t>
-  </si>
-  <si>
-    <t>옛날통닭</t>
-  </si>
-  <si>
-    <t>이사부</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 한식 &gt; 곰탕</t>
-  </si>
-  <si>
-    <t>철마한우곰탕</t>
-  </si>
-  <si>
-    <t>어부밥상</t>
-  </si>
-  <si>
-    <t>일광소머리곰탕</t>
-  </si>
-  <si>
-    <t>한올</t>
-  </si>
-  <si>
-    <t>거인집</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 한식 &gt; 육류,고기 &gt; 갈비</t>
-  </si>
-  <si>
-    <t>마당쇠돼지갈비 일광점</t>
-  </si>
-  <si>
-    <t>큰손칼국수</t>
-  </si>
-  <si>
-    <t>한국돈은행</t>
-  </si>
-  <si>
-    <t>음식점 &gt; 한식 &gt; 육류,고기 &gt; 곱창,막창</t>
-  </si>
-  <si>
-    <t>몬난이양곱창</t>
-  </si>
-  <si>
-    <t>서가 산곰장어&amp;조개구이</t>
-  </si>
-  <si>
-    <t>일리단길</t>
-  </si>
-  <si>
-    <t>카페퀸</t>
-  </si>
-  <si>
-    <t>커피나무</t>
-  </si>
-  <si>
-    <t>카페꼬막</t>
-  </si>
-  <si>
-    <t>라볼르</t>
-  </si>
-  <si>
-    <t>탄스비치</t>
-  </si>
-  <si>
-    <t>해와달커피</t>
-  </si>
-  <si>
     <t>수야네</t>
   </si>
   <si>
@@ -820,9 +727,6 @@
   </si>
   <si>
     <t>부크</t>
-  </si>
-  <si>
-    <t>티타늄커피</t>
   </si>
   <si>
     <t>갈맷길1코스1구간 중간인증대</t>
@@ -1203,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1254,13 +1158,13 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>267</v>
       </c>
       <c r="F2">
-        <v>35.080800000000004</v>
+        <v>35.078499999999998</v>
       </c>
       <c r="G2">
-        <v>129.07900000000001</v>
+        <v>129.08000000000001</v>
       </c>
       <c r="H2">
         <v>35.080800000000004</v>
@@ -1283,13 +1187,13 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>199</v>
+        <v>269</v>
       </c>
       <c r="F3">
-        <v>35.0822</v>
+        <v>35.078600000000002</v>
       </c>
       <c r="G3">
-        <v>129.078</v>
+        <v>129.08500000000001</v>
       </c>
       <c r="H3">
         <v>35.080800000000004</v>
@@ -1312,13 +1216,13 @@
         <v>16</v>
       </c>
       <c r="E4">
-        <v>227</v>
+        <v>445</v>
       </c>
       <c r="F4">
-        <v>35.078800000000001</v>
+        <v>35.083799999999997</v>
       </c>
       <c r="G4">
-        <v>129.08000000000001</v>
+        <v>129.07599999999999</v>
       </c>
       <c r="H4">
         <v>35.080800000000004</v>
@@ -1335,19 +1239,19 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>263</v>
+        <v>577</v>
       </c>
       <c r="F5">
-        <v>35.078600000000002</v>
+        <v>35.084200000000003</v>
       </c>
       <c r="G5">
-        <v>129.08000000000001</v>
+        <v>129.07400000000001</v>
       </c>
       <c r="H5">
         <v>35.080800000000004</v>
@@ -1364,19 +1268,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>266</v>
+        <v>632</v>
       </c>
       <c r="F6">
-        <v>35.078499999999998</v>
+        <v>35.078200000000002</v>
       </c>
       <c r="G6">
-        <v>129.08000000000001</v>
+        <v>129.07300000000001</v>
       </c>
       <c r="H6">
         <v>35.080800000000004</v>
@@ -1396,16 +1300,16 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>267</v>
+        <v>669</v>
       </c>
       <c r="F7">
-        <v>35.078499999999998</v>
+        <v>35.086199999999998</v>
       </c>
       <c r="G7">
-        <v>129.08000000000001</v>
+        <v>129.077</v>
       </c>
       <c r="H7">
         <v>35.080800000000004</v>
@@ -1422,19 +1326,19 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>269</v>
+        <v>680</v>
       </c>
       <c r="F8">
-        <v>35.078499999999998</v>
+        <v>35.077399999999997</v>
       </c>
       <c r="G8">
-        <v>129.08000000000001</v>
+        <v>129.07300000000001</v>
       </c>
       <c r="H8">
         <v>35.080800000000004</v>
@@ -1451,19 +1355,19 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>270</v>
+        <v>706</v>
       </c>
       <c r="F9">
-        <v>35.078499999999998</v>
+        <v>35.076500000000003</v>
       </c>
       <c r="G9">
-        <v>129.08000000000001</v>
+        <v>129.07300000000001</v>
       </c>
       <c r="H9">
         <v>35.080800000000004</v>
@@ -1480,19 +1384,19 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>445</v>
+        <v>727</v>
       </c>
       <c r="F10">
-        <v>35.083799999999997</v>
+        <v>35.076300000000003</v>
       </c>
       <c r="G10">
-        <v>129.07599999999999</v>
+        <v>129.07499999999999</v>
       </c>
       <c r="H10">
         <v>35.080800000000004</v>
@@ -1509,19 +1413,19 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>577</v>
+        <v>746</v>
       </c>
       <c r="F11">
-        <v>35.084200000000003</v>
+        <v>35.076999999999998</v>
       </c>
       <c r="G11">
-        <v>129.07400000000001</v>
+        <v>129.072</v>
       </c>
       <c r="H11">
         <v>35.080800000000004</v>
@@ -1538,19 +1442,19 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12">
-        <v>590</v>
+        <v>750</v>
       </c>
       <c r="F12">
-        <v>35.078699999999998</v>
+        <v>35.0871</v>
       </c>
       <c r="G12">
-        <v>129.07300000000001</v>
+        <v>129.077</v>
       </c>
       <c r="H12">
         <v>35.080800000000004</v>
@@ -1564,22 +1468,22 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>590</v>
+        <v>225</v>
       </c>
       <c r="F13">
-        <v>35.078699999999998</v>
+        <v>35.079300000000003</v>
       </c>
       <c r="G13">
-        <v>129.07300000000001</v>
+        <v>129.077</v>
       </c>
       <c r="H13">
         <v>35.080800000000004</v>
@@ -1593,22 +1497,22 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E14">
-        <v>632</v>
+        <v>250</v>
       </c>
       <c r="F14">
-        <v>35.078200000000002</v>
+        <v>35.078699999999998</v>
       </c>
       <c r="G14">
-        <v>129.07300000000001</v>
+        <v>129.078</v>
       </c>
       <c r="H14">
         <v>35.080800000000004</v>
@@ -1622,22 +1526,22 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15">
-        <v>647</v>
+        <v>266</v>
       </c>
       <c r="F15">
-        <v>35.077599999999997</v>
+        <v>35.078499999999998</v>
       </c>
       <c r="G15">
-        <v>129.07300000000001</v>
+        <v>129.08000000000001</v>
       </c>
       <c r="H15">
         <v>35.080800000000004</v>
@@ -1651,22 +1555,22 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16">
-        <v>659</v>
+        <v>468</v>
       </c>
       <c r="F16">
-        <v>35.084699999999998</v>
+        <v>35.084299999999999</v>
       </c>
       <c r="G16">
-        <v>129.07400000000001</v>
+        <v>129.07599999999999</v>
       </c>
       <c r="H16">
         <v>35.080800000000004</v>
@@ -1680,7 +1584,7 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
@@ -1689,13 +1593,13 @@
         <v>40</v>
       </c>
       <c r="E17">
-        <v>225</v>
+        <v>598</v>
       </c>
       <c r="F17">
-        <v>35.079300000000003</v>
+        <v>35.084800000000001</v>
       </c>
       <c r="G17">
-        <v>129.077</v>
+        <v>129.07400000000001</v>
       </c>
       <c r="H17">
         <v>35.080800000000004</v>
@@ -1709,22 +1613,22 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18">
-        <v>250</v>
+        <v>660</v>
       </c>
       <c r="F18">
-        <v>35.078699999999998</v>
+        <v>35.086399999999998</v>
       </c>
       <c r="G18">
-        <v>129.078</v>
+        <v>129.077</v>
       </c>
       <c r="H18">
         <v>35.080800000000004</v>
@@ -1738,22 +1642,22 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
       </c>
       <c r="E19">
-        <v>263</v>
+        <v>763</v>
       </c>
       <c r="F19">
-        <v>35.078600000000002</v>
+        <v>35.081400000000002</v>
       </c>
       <c r="G19">
-        <v>129.08000000000001</v>
+        <v>129.071</v>
       </c>
       <c r="H19">
         <v>35.080800000000004</v>
@@ -1767,7 +1671,7 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
@@ -1776,13 +1680,13 @@
         <v>45</v>
       </c>
       <c r="E20">
-        <v>266</v>
+        <v>776</v>
       </c>
       <c r="F20">
-        <v>35.078499999999998</v>
+        <v>35.082099999999997</v>
       </c>
       <c r="G20">
-        <v>129.08000000000001</v>
+        <v>129.071</v>
       </c>
       <c r="H20">
         <v>35.080800000000004</v>
@@ -1796,22 +1700,22 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>46</v>
       </c>
       <c r="E21">
-        <v>468</v>
+        <v>778</v>
       </c>
       <c r="F21">
-        <v>35.084299999999999</v>
+        <v>35.082599999999999</v>
       </c>
       <c r="G21">
-        <v>129.07599999999999</v>
+        <v>129.071</v>
       </c>
       <c r="H21">
         <v>35.080800000000004</v>
@@ -1825,7 +1729,7 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>47</v>
@@ -1834,13 +1738,13 @@
         <v>48</v>
       </c>
       <c r="E22">
-        <v>598</v>
+        <v>781</v>
       </c>
       <c r="F22">
-        <v>35.084299999999999</v>
+        <v>35.075699999999998</v>
       </c>
       <c r="G22">
-        <v>129.07400000000001</v>
+        <v>129.07300000000001</v>
       </c>
       <c r="H22">
         <v>35.080800000000004</v>
@@ -1854,22 +1758,22 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
         <v>49</v>
       </c>
-      <c r="D23" t="s">
-        <v>50</v>
-      </c>
       <c r="E23">
-        <v>660</v>
+        <v>783</v>
       </c>
       <c r="F23">
-        <v>35.086399999999998</v>
+        <v>35.076900000000002</v>
       </c>
       <c r="G23">
-        <v>129.077</v>
+        <v>129.072</v>
       </c>
       <c r="H23">
         <v>35.080800000000004</v>
@@ -1883,19 +1787,19 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24">
-        <v>763</v>
+        <v>788</v>
       </c>
       <c r="F24">
-        <v>35.081400000000002</v>
+        <v>35.078800000000001</v>
       </c>
       <c r="G24">
         <v>129.071</v>
@@ -1912,19 +1816,19 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E25">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="F25">
-        <v>35.082099999999997</v>
+        <v>35.078200000000002</v>
       </c>
       <c r="G25">
         <v>129.071</v>
@@ -1941,22 +1845,22 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
         <v>54</v>
       </c>
       <c r="E26">
-        <v>778</v>
+        <v>658</v>
       </c>
       <c r="F26">
-        <v>35.082299999999996</v>
+        <v>35.075600000000001</v>
       </c>
       <c r="G26">
-        <v>129.071</v>
+        <v>129.07599999999999</v>
       </c>
       <c r="H26">
         <v>35.080800000000004</v>
@@ -1970,7 +1874,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
         <v>55</v>
@@ -1979,13 +1883,13 @@
         <v>56</v>
       </c>
       <c r="E27">
-        <v>781</v>
+        <v>855</v>
       </c>
       <c r="F27">
-        <v>35.075699999999998</v>
+        <v>35.076900000000002</v>
       </c>
       <c r="G27">
-        <v>129.07300000000001</v>
+        <v>129.08699999999999</v>
       </c>
       <c r="H27">
         <v>35.080800000000004</v>
@@ -1999,22 +1903,22 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28">
-        <v>783</v>
+        <v>970</v>
       </c>
       <c r="F28">
-        <v>35.076900000000002</v>
+        <v>35.072299999999998</v>
       </c>
       <c r="G28">
-        <v>129.072</v>
+        <v>129.077</v>
       </c>
       <c r="H28">
         <v>35.080800000000004</v>
@@ -2028,19 +1932,19 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E29">
-        <v>788</v>
+        <v>993</v>
       </c>
       <c r="F29">
-        <v>35.078800000000001</v>
+        <v>35.075000000000003</v>
       </c>
       <c r="G29">
         <v>129.071</v>
@@ -2054,196 +1958,196 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E30">
-        <v>794</v>
+        <v>25</v>
       </c>
       <c r="F30">
-        <v>35.078400000000002</v>
+        <v>35.158099999999997</v>
       </c>
       <c r="G30">
-        <v>129.071</v>
+        <v>129.17099999999999</v>
       </c>
       <c r="H30">
-        <v>35.080800000000004</v>
+        <v>35.158200000000001</v>
       </c>
       <c r="I30">
-        <v>129.07900000000001</v>
+        <v>129.17099999999999</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E31">
-        <v>796</v>
+        <v>33</v>
       </c>
       <c r="F31">
-        <v>35.0807</v>
+        <v>35.158200000000001</v>
       </c>
       <c r="G31">
-        <v>129.07</v>
+        <v>129.17099999999999</v>
       </c>
       <c r="H31">
-        <v>35.080800000000004</v>
+        <v>35.158200000000001</v>
       </c>
       <c r="I31">
-        <v>129.07900000000001</v>
+        <v>129.17099999999999</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E32">
-        <v>658</v>
+        <v>35</v>
       </c>
       <c r="F32">
-        <v>35.075600000000001</v>
+        <v>35.158299999999997</v>
       </c>
       <c r="G32">
-        <v>129.07599999999999</v>
+        <v>129.17099999999999</v>
       </c>
       <c r="H32">
-        <v>35.080800000000004</v>
+        <v>35.158200000000001</v>
       </c>
       <c r="I32">
-        <v>129.07900000000001</v>
+        <v>129.17099999999999</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
         <v>61</v>
       </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E33">
-        <v>855</v>
+        <v>35</v>
       </c>
       <c r="F33">
-        <v>35.076900000000002</v>
+        <v>35.1584</v>
       </c>
       <c r="G33">
-        <v>129.08699999999999</v>
+        <v>129.173</v>
       </c>
       <c r="H33">
-        <v>35.080800000000004</v>
+        <v>35.158200000000001</v>
       </c>
       <c r="I33">
-        <v>129.07900000000001</v>
+        <v>129.17099999999999</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
-        <v>970</v>
+        <v>35</v>
       </c>
       <c r="F34">
-        <v>35.072299999999998</v>
+        <v>35.158499999999997</v>
       </c>
       <c r="G34">
-        <v>129.077</v>
+        <v>129.17099999999999</v>
       </c>
       <c r="H34">
-        <v>35.080800000000004</v>
+        <v>35.158200000000001</v>
       </c>
       <c r="I34">
-        <v>129.07900000000001</v>
+        <v>129.17099999999999</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
         <v>61</v>
       </c>
-      <c r="C35" t="s">
-        <v>66</v>
-      </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
-        <v>993</v>
+        <v>36</v>
       </c>
       <c r="F35">
-        <v>35.075000000000003</v>
+        <v>35.1586</v>
       </c>
       <c r="G35">
-        <v>129.071</v>
+        <v>129.17099999999999</v>
       </c>
       <c r="H35">
-        <v>35.080800000000004</v>
+        <v>35.158200000000001</v>
       </c>
       <c r="I35">
-        <v>129.07900000000001</v>
+        <v>129.17099999999999</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" t="s">
         <v>70</v>
       </c>
-      <c r="D36" t="s">
-        <v>71</v>
-      </c>
       <c r="E36">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F36">
-        <v>35.158299999999997</v>
+        <v>35.158700000000003</v>
       </c>
       <c r="G36">
         <v>129.17099999999999</v>
@@ -2257,22 +2161,22 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E37">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F37">
-        <v>35.158499999999997</v>
+        <v>35.158799999999999</v>
       </c>
       <c r="G37">
         <v>129.17099999999999</v>
@@ -2286,22 +2190,22 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E38">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F38">
-        <v>35.1586</v>
+        <v>35.158900000000003</v>
       </c>
       <c r="G38">
         <v>129.17099999999999</v>
@@ -2315,25 +2219,25 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E39">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F39">
-        <v>35.1586</v>
+        <v>35.158099999999997</v>
       </c>
       <c r="G39">
-        <v>129.17099999999999</v>
+        <v>129.172</v>
       </c>
       <c r="H39">
         <v>35.158200000000001</v>
@@ -2344,25 +2248,25 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E40">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F40">
-        <v>35.158499999999997</v>
+        <v>35.158200000000001</v>
       </c>
       <c r="G40">
-        <v>129.17099999999999</v>
+        <v>129.172</v>
       </c>
       <c r="H40">
         <v>35.158200000000001</v>
@@ -2373,25 +2277,25 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E41">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F41">
-        <v>35.158499999999997</v>
+        <v>35.158299999999997</v>
       </c>
       <c r="G41">
-        <v>129.17099999999999</v>
+        <v>129.172</v>
       </c>
       <c r="H41">
         <v>35.158200000000001</v>
@@ -2402,25 +2306,25 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E42">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F42">
-        <v>35.158499999999997</v>
+        <v>35.1584</v>
       </c>
       <c r="G42">
-        <v>129.17099999999999</v>
+        <v>129.172</v>
       </c>
       <c r="H42">
         <v>35.158200000000001</v>
@@ -2431,25 +2335,25 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E43">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F43">
         <v>35.158499999999997</v>
       </c>
       <c r="G43">
-        <v>129.17099999999999</v>
+        <v>129.172</v>
       </c>
       <c r="H43">
         <v>35.158200000000001</v>
@@ -2460,22 +2364,22 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E44">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F44">
-        <v>35.158499999999997</v>
+        <v>35.158799999999999</v>
       </c>
       <c r="G44">
         <v>129.17099999999999</v>
@@ -2489,25 +2393,25 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E45">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="F45">
-        <v>35.158499999999997</v>
+        <v>35.1586</v>
       </c>
       <c r="G45">
-        <v>129.17099999999999</v>
+        <v>129.172</v>
       </c>
       <c r="H45">
         <v>35.158200000000001</v>
@@ -2518,25 +2422,25 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E46">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="F46">
-        <v>35.158499999999997</v>
+        <v>35.159700000000001</v>
       </c>
       <c r="G46">
-        <v>129.17099999999999</v>
+        <v>129.172</v>
       </c>
       <c r="H46">
         <v>35.158200000000001</v>
@@ -2547,25 +2451,25 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E47">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="F47">
-        <v>35.158499999999997</v>
+        <v>35.159799999999997</v>
       </c>
       <c r="G47">
-        <v>129.17099999999999</v>
+        <v>129.172</v>
       </c>
       <c r="H47">
         <v>35.158200000000001</v>
@@ -2576,25 +2480,25 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E48">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="F48">
-        <v>35.158499999999997</v>
+        <v>35.1599</v>
       </c>
       <c r="G48">
-        <v>129.17099999999999</v>
+        <v>129.172</v>
       </c>
       <c r="H48">
         <v>35.158200000000001</v>
@@ -2605,25 +2509,25 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E49">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="F49">
-        <v>35.158499999999997</v>
+        <v>35.159700000000001</v>
       </c>
       <c r="G49">
-        <v>129.17099999999999</v>
+        <v>129.173</v>
       </c>
       <c r="H49">
         <v>35.158200000000001</v>
@@ -2634,25 +2538,25 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E50">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="F50">
-        <v>35.158499999999997</v>
+        <v>35.159799999999997</v>
       </c>
       <c r="G50">
-        <v>129.17099999999999</v>
+        <v>129.173</v>
       </c>
       <c r="H50">
         <v>35.158200000000001</v>
@@ -2663,25 +2567,25 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E51">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="F51">
-        <v>35.158499999999997</v>
+        <v>35.158200000000001</v>
       </c>
       <c r="G51">
-        <v>129.17099999999999</v>
+        <v>129.173</v>
       </c>
       <c r="H51">
         <v>35.158200000000001</v>
@@ -2692,25 +2596,25 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E52">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="F52">
-        <v>35.158799999999999</v>
+        <v>35.158499999999997</v>
       </c>
       <c r="G52">
-        <v>129.17099999999999</v>
+        <v>129.173</v>
       </c>
       <c r="H52">
         <v>35.158200000000001</v>
@@ -2721,25 +2625,25 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E53">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="F53">
-        <v>35.158499999999997</v>
+        <v>35.157600000000002</v>
       </c>
       <c r="G53">
-        <v>129.172</v>
+        <v>129.173</v>
       </c>
       <c r="H53">
         <v>35.158200000000001</v>
@@ -2750,25 +2654,25 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="D54" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E54">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="F54">
-        <v>35.159100000000002</v>
+        <v>35.157600000000002</v>
       </c>
       <c r="G54">
-        <v>129.17099999999999</v>
+        <v>129.173</v>
       </c>
       <c r="H54">
         <v>35.158200000000001</v>
@@ -2779,25 +2683,25 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="D55" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E55">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="F55">
-        <v>35.158999999999999</v>
+        <v>35.159700000000001</v>
       </c>
       <c r="G55">
-        <v>129.16999999999999</v>
+        <v>129.17400000000001</v>
       </c>
       <c r="H55">
         <v>35.158200000000001</v>
@@ -2808,25 +2712,25 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E56">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="F56">
-        <v>35.159199999999998</v>
+        <v>35.1601</v>
       </c>
       <c r="G56">
-        <v>129.16999999999999</v>
+        <v>129.17099999999999</v>
       </c>
       <c r="H56">
         <v>35.158200000000001</v>
@@ -2837,25 +2741,25 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E57">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F57">
-        <v>35.159700000000001</v>
+        <v>35.158200000000001</v>
       </c>
       <c r="G57">
-        <v>129.17099999999999</v>
+        <v>129.173</v>
       </c>
       <c r="H57">
         <v>35.158200000000001</v>
@@ -2866,25 +2770,25 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="D58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E58">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="F58">
-        <v>35.159700000000001</v>
+        <v>35.159599999999998</v>
       </c>
       <c r="G58">
-        <v>129.17099999999999</v>
+        <v>129.16999999999999</v>
       </c>
       <c r="H58">
         <v>35.158200000000001</v>
@@ -2895,25 +2799,25 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E59">
-        <v>167</v>
+        <v>314</v>
       </c>
       <c r="F59">
-        <v>35.159700000000001</v>
+        <v>35.160200000000003</v>
       </c>
       <c r="G59">
-        <v>129.17099999999999</v>
+        <v>129.16800000000001</v>
       </c>
       <c r="H59">
         <v>35.158200000000001</v>
@@ -2924,25 +2828,25 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="D60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E60">
-        <v>172</v>
+        <v>317</v>
       </c>
       <c r="F60">
-        <v>35.158200000000001</v>
+        <v>35.160899999999998</v>
       </c>
       <c r="G60">
-        <v>129.173</v>
+        <v>129.172</v>
       </c>
       <c r="H60">
         <v>35.158200000000001</v>
@@ -2953,25 +2857,25 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E61">
-        <v>186</v>
+        <v>479</v>
       </c>
       <c r="F61">
-        <v>35.158499999999997</v>
+        <v>35.157299999999999</v>
       </c>
       <c r="G61">
-        <v>129.173</v>
+        <v>129.17599999999999</v>
       </c>
       <c r="H61">
         <v>35.158200000000001</v>
@@ -2982,25 +2886,25 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="D62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E62">
-        <v>192</v>
+        <v>485</v>
       </c>
       <c r="F62">
-        <v>35.157600000000002</v>
+        <v>35.157299999999999</v>
       </c>
       <c r="G62">
-        <v>129.173</v>
+        <v>129.17599999999999</v>
       </c>
       <c r="H62">
         <v>35.158200000000001</v>
@@ -3011,25 +2915,25 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="D63" t="s">
         <v>103</v>
       </c>
       <c r="E63">
-        <v>194</v>
+        <v>562</v>
       </c>
       <c r="F63">
-        <v>35.157600000000002</v>
+        <v>35.160200000000003</v>
       </c>
       <c r="G63">
-        <v>129.173</v>
+        <v>129.16499999999999</v>
       </c>
       <c r="H63">
         <v>35.158200000000001</v>
@@ -3040,25 +2944,25 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" t="s">
         <v>104</v>
       </c>
-      <c r="D64" t="s">
-        <v>105</v>
-      </c>
       <c r="E64">
-        <v>201</v>
+        <v>562</v>
       </c>
       <c r="F64">
-        <v>35.159700000000001</v>
+        <v>35.160299999999999</v>
       </c>
       <c r="G64">
-        <v>129.16999999999999</v>
+        <v>129.16499999999999</v>
       </c>
       <c r="H64">
         <v>35.158200000000001</v>
@@ -3069,25 +2973,25 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E65">
-        <v>207</v>
+        <v>575</v>
       </c>
       <c r="F65">
-        <v>35.1601</v>
+        <v>35.161700000000003</v>
       </c>
       <c r="G65">
-        <v>129.17099999999999</v>
+        <v>129.166</v>
       </c>
       <c r="H65">
         <v>35.158200000000001</v>
@@ -3098,25 +3002,25 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C66" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" t="s">
         <v>107</v>
       </c>
-      <c r="D66" t="s">
-        <v>108</v>
-      </c>
       <c r="E66">
-        <v>171</v>
+        <v>884</v>
       </c>
       <c r="F66">
-        <v>35.158200000000001</v>
+        <v>35.161000000000001</v>
       </c>
       <c r="G66">
-        <v>129.173</v>
+        <v>129.16200000000001</v>
       </c>
       <c r="H66">
         <v>35.158200000000001</v>
@@ -3127,25 +3031,25 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D67" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E67">
-        <v>185</v>
+        <v>967</v>
       </c>
       <c r="F67">
-        <v>35.159599999999998</v>
+        <v>35.159100000000002</v>
       </c>
       <c r="G67">
-        <v>129.16999999999999</v>
+        <v>129.16</v>
       </c>
       <c r="H67">
         <v>35.158200000000001</v>
@@ -3156,25 +3060,25 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="D68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E68">
-        <v>314</v>
+        <v>992</v>
       </c>
       <c r="F68">
-        <v>35.160200000000003</v>
+        <v>35.1569</v>
       </c>
       <c r="G68">
-        <v>129.16800000000001</v>
+        <v>129.18199999999999</v>
       </c>
       <c r="H68">
         <v>35.158200000000001</v>
@@ -3185,10 +3089,10 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
         <v>112</v>
@@ -3197,332 +3101,332 @@
         <v>113</v>
       </c>
       <c r="E69">
-        <v>317</v>
+        <v>43</v>
       </c>
       <c r="F69">
-        <v>35.160899999999998</v>
+        <v>35.070700000000002</v>
       </c>
       <c r="G69">
-        <v>129.172</v>
+        <v>129.01900000000001</v>
       </c>
       <c r="H69">
-        <v>35.158200000000001</v>
+        <v>35.070599999999999</v>
       </c>
       <c r="I69">
-        <v>129.17099999999999</v>
+        <v>129.01900000000001</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
         <v>61</v>
-      </c>
-      <c r="C70" t="s">
-        <v>112</v>
       </c>
       <c r="D70" t="s">
         <v>114</v>
       </c>
       <c r="E70">
-        <v>471</v>
+        <v>46</v>
       </c>
       <c r="F70">
-        <v>35.162399999999998</v>
+        <v>35.070700000000002</v>
       </c>
       <c r="G70">
-        <v>129.16999999999999</v>
+        <v>129.01900000000001</v>
       </c>
       <c r="H70">
-        <v>35.158200000000001</v>
+        <v>35.070599999999999</v>
       </c>
       <c r="I70">
-        <v>129.17099999999999</v>
+        <v>129.01900000000001</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="D71" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E71">
-        <v>479</v>
+        <v>74</v>
       </c>
       <c r="F71">
-        <v>35.157299999999999</v>
+        <v>35.070700000000002</v>
       </c>
       <c r="G71">
-        <v>129.17599999999999</v>
+        <v>129.01900000000001</v>
       </c>
       <c r="H71">
-        <v>35.158200000000001</v>
+        <v>35.070599999999999</v>
       </c>
       <c r="I71">
-        <v>129.17099999999999</v>
+        <v>129.01900000000001</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D72" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E72">
-        <v>485</v>
+        <v>75</v>
       </c>
       <c r="F72">
-        <v>35.157299999999999</v>
+        <v>35.070599999999999</v>
       </c>
       <c r="G72">
-        <v>129.17599999999999</v>
+        <v>129.01900000000001</v>
       </c>
       <c r="H72">
-        <v>35.158200000000001</v>
+        <v>35.070599999999999</v>
       </c>
       <c r="I72">
-        <v>129.17099999999999</v>
+        <v>129.01900000000001</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s">
         <v>61</v>
       </c>
-      <c r="C73" t="s">
-        <v>117</v>
-      </c>
       <c r="D73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E73">
-        <v>562</v>
+        <v>105</v>
       </c>
       <c r="F73">
-        <v>35.160200000000003</v>
+        <v>35.070900000000002</v>
       </c>
       <c r="G73">
-        <v>129.16499999999999</v>
+        <v>129.018</v>
       </c>
       <c r="H73">
-        <v>35.158200000000001</v>
+        <v>35.070599999999999</v>
       </c>
       <c r="I73">
-        <v>129.17099999999999</v>
+        <v>129.01900000000001</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E74">
-        <v>562</v>
+        <v>106</v>
       </c>
       <c r="F74">
-        <v>35.160299999999999</v>
+        <v>35.070500000000003</v>
       </c>
       <c r="G74">
-        <v>129.16499999999999</v>
+        <v>129.018</v>
       </c>
       <c r="H74">
-        <v>35.158200000000001</v>
+        <v>35.070599999999999</v>
       </c>
       <c r="I74">
-        <v>129.17099999999999</v>
+        <v>129.01900000000001</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
         <v>61</v>
       </c>
-      <c r="C75" t="s">
-        <v>117</v>
-      </c>
       <c r="D75" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E75">
-        <v>575</v>
+        <v>191</v>
       </c>
       <c r="F75">
-        <v>35.161700000000003</v>
+        <v>35.071399999999997</v>
       </c>
       <c r="G75">
-        <v>129.166</v>
+        <v>129.018</v>
       </c>
       <c r="H75">
-        <v>35.158200000000001</v>
+        <v>35.070599999999999</v>
       </c>
       <c r="I75">
-        <v>129.17099999999999</v>
+        <v>129.01900000000001</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E76">
-        <v>694</v>
+        <v>226</v>
       </c>
       <c r="F76">
-        <v>35.162999999999997</v>
+        <v>35.070799999999998</v>
       </c>
       <c r="G76">
-        <v>129.166</v>
+        <v>129.017</v>
       </c>
       <c r="H76">
-        <v>35.158200000000001</v>
+        <v>35.070599999999999</v>
       </c>
       <c r="I76">
-        <v>129.17099999999999</v>
+        <v>129.01900000000001</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D77" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E77">
-        <v>884</v>
+        <v>231</v>
       </c>
       <c r="F77">
-        <v>35.161000000000001</v>
+        <v>35.070799999999998</v>
       </c>
       <c r="G77">
-        <v>129.16200000000001</v>
+        <v>129.017</v>
       </c>
       <c r="H77">
-        <v>35.158200000000001</v>
+        <v>35.070599999999999</v>
       </c>
       <c r="I77">
-        <v>129.17099999999999</v>
+        <v>129.01900000000001</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D78" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E78">
-        <v>967</v>
+        <v>253</v>
       </c>
       <c r="F78">
-        <v>35.159100000000002</v>
+        <v>35.0717</v>
       </c>
       <c r="G78">
-        <v>129.16</v>
+        <v>129.017</v>
       </c>
       <c r="H78">
-        <v>35.158200000000001</v>
+        <v>35.070599999999999</v>
       </c>
       <c r="I78">
-        <v>129.17099999999999</v>
+        <v>129.01900000000001</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="B79" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D79" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E79">
-        <v>992</v>
+        <v>350</v>
       </c>
       <c r="F79">
-        <v>35.1569</v>
+        <v>35.072800000000001</v>
       </c>
       <c r="G79">
-        <v>129.18199999999999</v>
+        <v>129.01599999999999</v>
       </c>
       <c r="H79">
-        <v>35.158200000000001</v>
+        <v>35.070599999999999</v>
       </c>
       <c r="I79">
-        <v>129.17099999999999</v>
+        <v>129.01900000000001</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="D80" t="s">
         <v>128</v>
       </c>
       <c r="E80">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F80">
-        <v>35.070700000000002</v>
+        <v>35.070900000000002</v>
       </c>
       <c r="G80">
-        <v>129.01900000000001</v>
+        <v>129.018</v>
       </c>
       <c r="H80">
         <v>35.070599999999999</v>
@@ -3533,25 +3437,25 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D81" t="s">
         <v>129</v>
       </c>
       <c r="E81">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="F81">
-        <v>35.070700000000002</v>
+        <v>35.070999999999998</v>
       </c>
       <c r="G81">
-        <v>129.01900000000001</v>
+        <v>129.018</v>
       </c>
       <c r="H81">
         <v>35.070599999999999</v>
@@ -3562,25 +3466,25 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C82" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="D82" t="s">
         <v>130</v>
       </c>
       <c r="E82">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="F82">
-        <v>35.070700000000002</v>
+        <v>35.070999999999998</v>
       </c>
       <c r="G82">
-        <v>129.01900000000001</v>
+        <v>129.017</v>
       </c>
       <c r="H82">
         <v>35.070599999999999</v>
@@ -3591,25 +3495,25 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" t="s">
         <v>131</v>
       </c>
-      <c r="D83" t="s">
-        <v>132</v>
-      </c>
       <c r="E83">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="F83">
-        <v>35.070599999999999</v>
+        <v>35.071399999999997</v>
       </c>
       <c r="G83">
-        <v>129.01900000000001</v>
+        <v>129.018</v>
       </c>
       <c r="H83">
         <v>35.070599999999999</v>
@@ -3620,25 +3524,25 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C84" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E84">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="F84">
-        <v>35.070700000000002</v>
+        <v>35.0715</v>
       </c>
       <c r="G84">
-        <v>129.01900000000001</v>
+        <v>129.017</v>
       </c>
       <c r="H84">
         <v>35.070599999999999</v>
@@ -3649,25 +3553,25 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="D85" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E85">
-        <v>86</v>
+        <v>306</v>
       </c>
       <c r="F85">
-        <v>35.070099999999996</v>
+        <v>35.070999999999998</v>
       </c>
       <c r="G85">
-        <v>129.01900000000001</v>
+        <v>129.01599999999999</v>
       </c>
       <c r="H85">
         <v>35.070599999999999</v>
@@ -3678,25 +3582,25 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C86" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D86" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E86">
-        <v>105</v>
+        <v>324</v>
       </c>
       <c r="F86">
-        <v>35.070900000000002</v>
+        <v>35.0717</v>
       </c>
       <c r="G86">
-        <v>129.018</v>
+        <v>129.01599999999999</v>
       </c>
       <c r="H86">
         <v>35.070599999999999</v>
@@ -3707,25 +3611,25 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C87" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D87" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E87">
-        <v>106</v>
+        <v>367</v>
       </c>
       <c r="F87">
-        <v>35.070500000000003</v>
+        <v>35.072899999999997</v>
       </c>
       <c r="G87">
-        <v>129.018</v>
+        <v>129.017</v>
       </c>
       <c r="H87">
         <v>35.070599999999999</v>
@@ -3736,25 +3640,25 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C88" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D88" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E88">
-        <v>107</v>
+        <v>402</v>
       </c>
       <c r="F88">
-        <v>35.070500000000003</v>
+        <v>35.073300000000003</v>
       </c>
       <c r="G88">
-        <v>129.018</v>
+        <v>129.017</v>
       </c>
       <c r="H88">
         <v>35.070599999999999</v>
@@ -3765,25 +3669,25 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="D89" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E89">
-        <v>111</v>
+        <v>428</v>
       </c>
       <c r="F89">
-        <v>35.070900000000002</v>
+        <v>35.073500000000003</v>
       </c>
       <c r="G89">
-        <v>129.018</v>
+        <v>129.01599999999999</v>
       </c>
       <c r="H89">
         <v>35.070599999999999</v>
@@ -3794,25 +3698,25 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C90" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D90" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E90">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="F90">
-        <v>35.070999999999998</v>
+        <v>35.069000000000003</v>
       </c>
       <c r="G90">
-        <v>129.018</v>
+        <v>129.02000000000001</v>
       </c>
       <c r="H90">
         <v>35.070599999999999</v>
@@ -3823,25 +3727,25 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C91" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D91" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E91">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="F91">
-        <v>35.071399999999997</v>
+        <v>35.068800000000003</v>
       </c>
       <c r="G91">
-        <v>129.018</v>
+        <v>129.02000000000001</v>
       </c>
       <c r="H91">
         <v>35.070599999999999</v>
@@ -3852,22 +3756,22 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="D92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E92">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="F92">
-        <v>35.070799999999998</v>
+        <v>35.072200000000002</v>
       </c>
       <c r="G92">
         <v>129.017</v>
@@ -3881,25 +3785,25 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="D93" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E93">
-        <v>231</v>
+        <v>530</v>
       </c>
       <c r="F93">
-        <v>35.070799999999998</v>
+        <v>35.069800000000001</v>
       </c>
       <c r="G93">
-        <v>129.017</v>
+        <v>129.01400000000001</v>
       </c>
       <c r="H93">
         <v>35.070599999999999</v>
@@ -3910,25 +3814,25 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C94" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="D94" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E94">
-        <v>253</v>
+        <v>588</v>
       </c>
       <c r="F94">
-        <v>35.0717</v>
+        <v>35.075000000000003</v>
       </c>
       <c r="G94">
-        <v>129.017</v>
+        <v>129.01599999999999</v>
       </c>
       <c r="H94">
         <v>35.070599999999999</v>
@@ -3939,25 +3843,25 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C95" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="D95" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E95">
-        <v>91</v>
+        <v>588</v>
       </c>
       <c r="F95">
-        <v>35.070099999999996</v>
+        <v>35.075299999999999</v>
       </c>
       <c r="G95">
-        <v>129.01900000000001</v>
+        <v>129.02199999999999</v>
       </c>
       <c r="H95">
         <v>35.070599999999999</v>
@@ -3968,25 +3872,25 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C96" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="D96" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E96">
-        <v>103</v>
+        <v>612</v>
       </c>
       <c r="F96">
-        <v>35.070900000000002</v>
+        <v>35.075600000000001</v>
       </c>
       <c r="G96">
-        <v>129.018</v>
+        <v>129.02199999999999</v>
       </c>
       <c r="H96">
         <v>35.070599999999999</v>
@@ -3997,25 +3901,25 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C97" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="D97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E97">
-        <v>117</v>
+        <v>639</v>
       </c>
       <c r="F97">
-        <v>35.070999999999998</v>
+        <v>35.075899999999997</v>
       </c>
       <c r="G97">
-        <v>129.018</v>
+        <v>129.017</v>
       </c>
       <c r="H97">
         <v>35.070599999999999</v>
@@ -4026,25 +3930,25 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C98" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E98">
-        <v>121</v>
+        <v>826</v>
       </c>
       <c r="F98">
-        <v>35.069800000000001</v>
+        <v>35.063099999999999</v>
       </c>
       <c r="G98">
-        <v>129.018</v>
+        <v>129.01900000000001</v>
       </c>
       <c r="H98">
         <v>35.070599999999999</v>
@@ -4055,25 +3959,25 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C99" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E99">
-        <v>171</v>
+        <v>850</v>
       </c>
       <c r="F99">
-        <v>35.071300000000001</v>
+        <v>35.078099999999999</v>
       </c>
       <c r="G99">
-        <v>129.018</v>
+        <v>129.02099999999999</v>
       </c>
       <c r="H99">
         <v>35.070599999999999</v>
@@ -4084,25 +3988,25 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C100" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E100">
-        <v>186</v>
+        <v>910</v>
       </c>
       <c r="F100">
-        <v>35.070999999999998</v>
+        <v>35.062399999999997</v>
       </c>
       <c r="G100">
-        <v>129.017</v>
+        <v>129.02000000000001</v>
       </c>
       <c r="H100">
         <v>35.070599999999999</v>
@@ -4113,634 +4017,634 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
+        <v>112</v>
+      </c>
+      <c r="D101" t="s">
+        <v>154</v>
+      </c>
+      <c r="E101">
         <v>38</v>
       </c>
-      <c r="C101" t="s">
-        <v>154</v>
-      </c>
-      <c r="D101" t="s">
-        <v>155</v>
-      </c>
-      <c r="E101">
-        <v>188</v>
-      </c>
       <c r="F101">
-        <v>35.071399999999997</v>
+        <v>35.096800000000002</v>
       </c>
       <c r="G101">
-        <v>129.018</v>
+        <v>129.03100000000001</v>
       </c>
       <c r="H101">
-        <v>35.070599999999999</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="I101">
-        <v>129.01900000000001</v>
+        <v>129.03200000000001</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E102">
-        <v>200</v>
+        <v>49</v>
       </c>
       <c r="F102">
-        <v>35.071399999999997</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="G102">
-        <v>129.018</v>
+        <v>129.03100000000001</v>
       </c>
       <c r="H102">
-        <v>35.070599999999999</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="I102">
-        <v>129.01900000000001</v>
+        <v>129.03200000000001</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="D103" t="s">
         <v>157</v>
       </c>
       <c r="E103">
-        <v>206</v>
+        <v>50</v>
       </c>
       <c r="F103">
-        <v>35.071399999999997</v>
+        <v>35.096600000000002</v>
       </c>
       <c r="G103">
-        <v>129.017</v>
+        <v>129.03100000000001</v>
       </c>
       <c r="H103">
-        <v>35.070599999999999</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="I103">
-        <v>129.01900000000001</v>
+        <v>129.03200000000001</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="D104" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E104">
-        <v>306</v>
+        <v>50</v>
       </c>
       <c r="F104">
-        <v>35.070999999999998</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="G104">
-        <v>129.01599999999999</v>
+        <v>129.03100000000001</v>
       </c>
       <c r="H104">
-        <v>35.070599999999999</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="I104">
-        <v>129.01900000000001</v>
+        <v>129.03200000000001</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="D105" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E105">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="F105">
-        <v>35.0717</v>
+        <v>35.097099999999998</v>
       </c>
       <c r="G105">
-        <v>129.01599999999999</v>
+        <v>129.03100000000001</v>
       </c>
       <c r="H105">
-        <v>35.070599999999999</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="I105">
-        <v>129.01900000000001</v>
+        <v>129.03200000000001</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B106" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D106" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E106">
-        <v>367</v>
+        <v>51</v>
       </c>
       <c r="F106">
-        <v>35.072899999999997</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="G106">
-        <v>129.017</v>
+        <v>129.03100000000001</v>
       </c>
       <c r="H106">
-        <v>35.070599999999999</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="I106">
-        <v>129.01900000000001</v>
+        <v>129.03200000000001</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B107" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D107" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E107">
-        <v>402</v>
+        <v>51</v>
       </c>
       <c r="F107">
-        <v>35.073300000000003</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="G107">
-        <v>129.017</v>
+        <v>129.03100000000001</v>
       </c>
       <c r="H107">
-        <v>35.070599999999999</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="I107">
-        <v>129.01900000000001</v>
+        <v>129.03200000000001</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D108" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E108">
-        <v>424</v>
+        <v>51</v>
       </c>
       <c r="F108">
-        <v>35.072899999999997</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="G108">
-        <v>129.01599999999999</v>
+        <v>129.03100000000001</v>
       </c>
       <c r="H108">
-        <v>35.070599999999999</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="I108">
-        <v>129.01900000000001</v>
+        <v>129.03200000000001</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="D109" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E109">
-        <v>428</v>
+        <v>51</v>
       </c>
       <c r="F109">
-        <v>35.073500000000003</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="G109">
-        <v>129.01599999999999</v>
+        <v>129.03100000000001</v>
       </c>
       <c r="H109">
-        <v>35.070599999999999</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="I109">
-        <v>129.01900000000001</v>
+        <v>129.03200000000001</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
         <v>61</v>
       </c>
-      <c r="C110" t="s">
-        <v>66</v>
-      </c>
       <c r="D110" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E110">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="F110">
-        <v>35.069000000000003</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="G110">
-        <v>129.02000000000001</v>
+        <v>129.03100000000001</v>
       </c>
       <c r="H110">
-        <v>35.070599999999999</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="I110">
-        <v>129.01900000000001</v>
+        <v>129.03200000000001</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
         <v>61</v>
       </c>
-      <c r="C111" t="s">
-        <v>66</v>
-      </c>
       <c r="D111" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E111">
-        <v>205</v>
+        <v>51</v>
       </c>
       <c r="F111">
-        <v>35.068800000000003</v>
+        <v>35.096800000000002</v>
       </c>
       <c r="G111">
-        <v>129.02000000000001</v>
+        <v>129.03100000000001</v>
       </c>
       <c r="H111">
-        <v>35.070599999999999</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="I111">
-        <v>129.01900000000001</v>
+        <v>129.03200000000001</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
         <v>61</v>
       </c>
-      <c r="C112" t="s">
-        <v>62</v>
-      </c>
       <c r="D112" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E112">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c r="F112">
-        <v>35.072200000000002</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="G112">
-        <v>129.017</v>
+        <v>129.03100000000001</v>
       </c>
       <c r="H112">
-        <v>35.070599999999999</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="I112">
-        <v>129.01900000000001</v>
+        <v>129.03200000000001</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
         <v>61</v>
       </c>
-      <c r="C113" t="s">
-        <v>125</v>
-      </c>
       <c r="D113" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E113">
-        <v>530</v>
+        <v>51</v>
       </c>
       <c r="F113">
-        <v>35.069800000000001</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="G113">
-        <v>129.01400000000001</v>
+        <v>129.03100000000001</v>
       </c>
       <c r="H113">
-        <v>35.070599999999999</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="I113">
-        <v>129.01900000000001</v>
+        <v>129.03200000000001</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B114" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C114" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="D114" t="s">
         <v>170</v>
       </c>
       <c r="E114">
-        <v>588</v>
+        <v>152</v>
       </c>
       <c r="F114">
-        <v>35.075000000000003</v>
+        <v>35.0976</v>
       </c>
       <c r="G114">
-        <v>129.01599999999999</v>
+        <v>129.03</v>
       </c>
       <c r="H114">
-        <v>35.070599999999999</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="I114">
-        <v>129.01900000000001</v>
+        <v>129.03200000000001</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B115" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C115" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="D115" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E115">
-        <v>588</v>
+        <v>167</v>
       </c>
       <c r="F115">
-        <v>35.075299999999999</v>
+        <v>35.098199999999999</v>
       </c>
       <c r="G115">
-        <v>129.02199999999999</v>
+        <v>129.03200000000001</v>
       </c>
       <c r="H115">
-        <v>35.070599999999999</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="I115">
-        <v>129.01900000000001</v>
+        <v>129.03200000000001</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B116" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C116" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D116" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E116">
-        <v>612</v>
+        <v>182</v>
       </c>
       <c r="F116">
-        <v>35.075600000000001</v>
+        <v>35.098300000000002</v>
       </c>
       <c r="G116">
-        <v>129.02199999999999</v>
+        <v>129.03200000000001</v>
       </c>
       <c r="H116">
-        <v>35.070599999999999</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="I116">
-        <v>129.01900000000001</v>
+        <v>129.03200000000001</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B117" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C117" t="s">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="D117" t="s">
         <v>175</v>
       </c>
       <c r="E117">
-        <v>639</v>
+        <v>208</v>
       </c>
       <c r="F117">
-        <v>35.075899999999997</v>
+        <v>35.097900000000003</v>
       </c>
       <c r="G117">
-        <v>129.017</v>
+        <v>129.03299999999999</v>
       </c>
       <c r="H117">
-        <v>35.070599999999999</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="I117">
-        <v>129.01900000000001</v>
+        <v>129.03200000000001</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B118" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C118" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D118" t="s">
         <v>176</v>
       </c>
       <c r="E118">
-        <v>826</v>
+        <v>215</v>
       </c>
       <c r="F118">
-        <v>35.063099999999999</v>
+        <v>35.097499999999997</v>
       </c>
       <c r="G118">
-        <v>129.01900000000001</v>
+        <v>129.03</v>
       </c>
       <c r="H118">
-        <v>35.070599999999999</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="I118">
-        <v>129.01900000000001</v>
+        <v>129.03200000000001</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B119" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C119" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
         <v>177</v>
       </c>
       <c r="E119">
-        <v>850</v>
+        <v>216</v>
       </c>
       <c r="F119">
-        <v>35.078099999999999</v>
+        <v>35.097799999999999</v>
       </c>
       <c r="G119">
-        <v>129.02099999999999</v>
+        <v>129.03399999999999</v>
       </c>
       <c r="H119">
-        <v>35.070599999999999</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="I119">
-        <v>129.01900000000001</v>
+        <v>129.03200000000001</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B120" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C120" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="D120" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="E120">
-        <v>892</v>
+        <v>218</v>
       </c>
       <c r="F120">
-        <v>35.0627</v>
+        <v>35.098500000000001</v>
       </c>
       <c r="G120">
-        <v>129.02099999999999</v>
+        <v>129.03100000000001</v>
       </c>
       <c r="H120">
-        <v>35.070599999999999</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="I120">
-        <v>129.01900000000001</v>
+        <v>129.03200000000001</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B121" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C121" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D121" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E121">
-        <v>910</v>
+        <v>220</v>
       </c>
       <c r="F121">
-        <v>35.062399999999997</v>
+        <v>35.098599999999998</v>
       </c>
       <c r="G121">
-        <v>129.02000000000001</v>
+        <v>129.03100000000001</v>
       </c>
       <c r="H121">
-        <v>35.070599999999999</v>
+        <v>35.096699999999998</v>
       </c>
       <c r="I121">
-        <v>129.01900000000001</v>
+        <v>129.03200000000001</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C122" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D122" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E122">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="F122">
-        <v>35.096800000000002</v>
+        <v>35.097900000000003</v>
       </c>
       <c r="G122">
-        <v>129.03200000000001</v>
+        <v>129.03399999999999</v>
       </c>
       <c r="H122">
         <v>35.096699999999998</v>
@@ -4751,25 +4655,25 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C123" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="D123" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E123">
-        <v>38</v>
+        <v>223</v>
       </c>
       <c r="F123">
-        <v>35.096800000000002</v>
+        <v>35.097900000000003</v>
       </c>
       <c r="G123">
-        <v>129.03100000000001</v>
+        <v>129.03399999999999</v>
       </c>
       <c r="H123">
         <v>35.096699999999998</v>
@@ -4780,25 +4684,25 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C124" t="s">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="D124" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E124">
-        <v>49</v>
+        <v>223</v>
       </c>
       <c r="F124">
-        <v>35.096699999999998</v>
+        <v>35.098199999999999</v>
       </c>
       <c r="G124">
-        <v>129.03100000000001</v>
+        <v>129.03299999999999</v>
       </c>
       <c r="H124">
         <v>35.096699999999998</v>
@@ -4809,25 +4713,25 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C125" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="D125" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E125">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="F125">
-        <v>35.096600000000002</v>
+        <v>35.096899999999998</v>
       </c>
       <c r="G125">
-        <v>129.03100000000001</v>
+        <v>129.03</v>
       </c>
       <c r="H125">
         <v>35.096699999999998</v>
@@ -4838,25 +4742,25 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C126" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="D126" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E126">
-        <v>50</v>
+        <v>202</v>
       </c>
       <c r="F126">
-        <v>35.096699999999998</v>
+        <v>35.098399999999998</v>
       </c>
       <c r="G126">
-        <v>129.03100000000001</v>
+        <v>129.03299999999999</v>
       </c>
       <c r="H126">
         <v>35.096699999999998</v>
@@ -4867,22 +4771,22 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="D127" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E127">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c r="F127">
-        <v>35.097099999999998</v>
+        <v>35.0991</v>
       </c>
       <c r="G127">
         <v>129.03100000000001</v>
@@ -4896,25 +4800,25 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C128" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D128" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E128">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="F128">
-        <v>35.096699999999998</v>
+        <v>35.098500000000001</v>
       </c>
       <c r="G128">
-        <v>129.03100000000001</v>
+        <v>129.03399999999999</v>
       </c>
       <c r="H128">
         <v>35.096699999999998</v>
@@ -4925,22 +4829,22 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C129" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D129" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E129">
-        <v>51</v>
+        <v>287</v>
       </c>
       <c r="F129">
-        <v>35.096699999999998</v>
+        <v>35.099299999999999</v>
       </c>
       <c r="G129">
         <v>129.03100000000001</v>
@@ -4954,22 +4858,22 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C130" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D130" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E130">
-        <v>51</v>
+        <v>291</v>
       </c>
       <c r="F130">
-        <v>35.096699999999998</v>
+        <v>35.099299999999999</v>
       </c>
       <c r="G130">
         <v>129.03100000000001</v>
@@ -4983,25 +4887,25 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C131" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D131" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E131">
-        <v>51</v>
+        <v>298</v>
       </c>
       <c r="F131">
-        <v>35.096699999999998</v>
+        <v>35.0989</v>
       </c>
       <c r="G131">
-        <v>129.03100000000001</v>
+        <v>129.03</v>
       </c>
       <c r="H131">
         <v>35.096699999999998</v>
@@ -5012,25 +4916,25 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C132" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="D132" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E132">
-        <v>51</v>
+        <v>299</v>
       </c>
       <c r="F132">
-        <v>35.096699999999998</v>
+        <v>35.099400000000003</v>
       </c>
       <c r="G132">
-        <v>129.03100000000001</v>
+        <v>129.03200000000001</v>
       </c>
       <c r="H132">
         <v>35.096699999999998</v>
@@ -5041,25 +4945,25 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C133" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="D133" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E133">
-        <v>51</v>
+        <v>309</v>
       </c>
       <c r="F133">
-        <v>35.096800000000002</v>
+        <v>35.096400000000003</v>
       </c>
       <c r="G133">
-        <v>129.03100000000001</v>
+        <v>129.02799999999999</v>
       </c>
       <c r="H133">
         <v>35.096699999999998</v>
@@ -5070,25 +4974,25 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C134" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D134" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E134">
-        <v>51</v>
+        <v>312</v>
       </c>
       <c r="F134">
-        <v>35.096699999999998</v>
+        <v>35.098500000000001</v>
       </c>
       <c r="G134">
-        <v>129.03100000000001</v>
+        <v>129.029</v>
       </c>
       <c r="H134">
         <v>35.096699999999998</v>
@@ -5099,25 +5003,25 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C135" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D135" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E135">
-        <v>51</v>
+        <v>341</v>
       </c>
       <c r="F135">
-        <v>35.096699999999998</v>
+        <v>35.0989</v>
       </c>
       <c r="G135">
-        <v>129.03100000000001</v>
+        <v>129.029</v>
       </c>
       <c r="H135">
         <v>35.096699999999998</v>
@@ -5128,25 +5032,25 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C136" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D136" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E136">
-        <v>51</v>
+        <v>372</v>
       </c>
       <c r="F136">
-        <v>35.096699999999998</v>
+        <v>35.097099999999998</v>
       </c>
       <c r="G136">
-        <v>129.03100000000001</v>
+        <v>129.036</v>
       </c>
       <c r="H136">
         <v>35.096699999999998</v>
@@ -5157,25 +5061,25 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B137" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C137" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="D137" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E137">
-        <v>149</v>
+        <v>387</v>
       </c>
       <c r="F137">
-        <v>35.097499999999997</v>
+        <v>35.099299999999999</v>
       </c>
       <c r="G137">
-        <v>129.03</v>
+        <v>129.029</v>
       </c>
       <c r="H137">
         <v>35.096699999999998</v>
@@ -5186,25 +5090,25 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B138" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C138" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="D138" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E138">
-        <v>152</v>
+        <v>389</v>
       </c>
       <c r="F138">
-        <v>35.0976</v>
+        <v>35.096499999999999</v>
       </c>
       <c r="G138">
-        <v>129.03</v>
+        <v>129.036</v>
       </c>
       <c r="H138">
         <v>35.096699999999998</v>
@@ -5215,837 +5119,837 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B139" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C139" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="D139" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E139">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="F139">
-        <v>35.098199999999999</v>
+        <v>35.262099999999997</v>
       </c>
       <c r="G139">
-        <v>129.03200000000001</v>
+        <v>129.233</v>
       </c>
       <c r="H139">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I139">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B140" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D140" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E140">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="F140">
-        <v>35.098300000000002</v>
+        <v>35.262500000000003</v>
       </c>
       <c r="G140">
-        <v>129.03200000000001</v>
+        <v>129.233</v>
       </c>
       <c r="H140">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I140">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B141" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="D141" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E141">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="F141">
-        <v>35.097900000000003</v>
+        <v>35.262999999999998</v>
       </c>
       <c r="G141">
-        <v>129.03299999999999</v>
+        <v>129.23400000000001</v>
       </c>
       <c r="H141">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I141">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B142" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="D142" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E142">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="F142">
-        <v>35.097900000000003</v>
+        <v>35.261800000000001</v>
       </c>
       <c r="G142">
-        <v>129.03299999999999</v>
+        <v>129.233</v>
       </c>
       <c r="H142">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I142">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B143" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="D143" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E143">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="F143">
-        <v>35.097499999999997</v>
+        <v>35.262599999999999</v>
       </c>
       <c r="G143">
-        <v>129.03</v>
+        <v>129.233</v>
       </c>
       <c r="H143">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I143">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B144" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="D144" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E144">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="F144">
-        <v>35.098300000000002</v>
+        <v>35.262300000000003</v>
       </c>
       <c r="G144">
-        <v>129.03299999999999</v>
+        <v>129.233</v>
       </c>
       <c r="H144">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I144">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B145" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C145" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="D145" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E145">
-        <v>216</v>
+        <v>99</v>
       </c>
       <c r="F145">
-        <v>35.097799999999999</v>
+        <v>35.261899999999997</v>
       </c>
       <c r="G145">
-        <v>129.03399999999999</v>
+        <v>129.233</v>
       </c>
       <c r="H145">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I145">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B146" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C146" t="s">
         <v>208</v>
       </c>
       <c r="D146" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E146">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="F146">
-        <v>35.098500000000001</v>
+        <v>35.261800000000001</v>
       </c>
       <c r="G146">
-        <v>129.03100000000001</v>
+        <v>129.233</v>
       </c>
       <c r="H146">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I146">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B147" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C147" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="D147" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E147">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="F147">
-        <v>35.098599999999998</v>
+        <v>35.261800000000001</v>
       </c>
       <c r="G147">
-        <v>129.03100000000001</v>
+        <v>129.233</v>
       </c>
       <c r="H147">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I147">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B148" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E148">
-        <v>222</v>
+        <v>103</v>
       </c>
       <c r="F148">
-        <v>35.097900000000003</v>
+        <v>35.261699999999998</v>
       </c>
       <c r="G148">
-        <v>129.03399999999999</v>
+        <v>129.233</v>
       </c>
       <c r="H148">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I148">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B149" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C149" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D149" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E149">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="F149">
-        <v>35.098700000000001</v>
+        <v>35.262</v>
       </c>
       <c r="G149">
-        <v>129.03200000000001</v>
+        <v>129.233</v>
       </c>
       <c r="H149">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I149">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B150" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C150" t="s">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="D150" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E150">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="F150">
-        <v>35.097900000000003</v>
+        <v>35.262099999999997</v>
       </c>
       <c r="G150">
-        <v>129.03399999999999</v>
+        <v>129.233</v>
       </c>
       <c r="H150">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I150">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B151" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C151" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E151">
-        <v>223</v>
+        <v>105</v>
       </c>
       <c r="F151">
-        <v>35.098199999999999</v>
+        <v>35.261699999999998</v>
       </c>
       <c r="G151">
-        <v>129.03299999999999</v>
+        <v>129.233</v>
       </c>
       <c r="H151">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I151">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B152" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="D152" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E152">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F152">
-        <v>35.096899999999998</v>
+        <v>35.262900000000002</v>
       </c>
       <c r="G152">
-        <v>129.03</v>
+        <v>129.233</v>
       </c>
       <c r="H152">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I152">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B153" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C153" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D153" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E153">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="F153">
-        <v>35.098399999999998</v>
+        <v>35.262099999999997</v>
       </c>
       <c r="G153">
-        <v>129.03299999999999</v>
+        <v>129.233</v>
       </c>
       <c r="H153">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I153">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B154" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C154" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="D154" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E154">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="F154">
-        <v>35.0991</v>
+        <v>35.262300000000003</v>
       </c>
       <c r="G154">
-        <v>129.03100000000001</v>
+        <v>129.23400000000001</v>
       </c>
       <c r="H154">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I154">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B155" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C155" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="D155" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E155">
-        <v>278</v>
+        <v>51</v>
       </c>
       <c r="F155">
-        <v>35.098500000000001</v>
+        <v>35.262500000000003</v>
       </c>
       <c r="G155">
-        <v>129.03399999999999</v>
+        <v>129.23400000000001</v>
       </c>
       <c r="H155">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I155">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B156" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C156" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="D156" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E156">
-        <v>287</v>
+        <v>52</v>
       </c>
       <c r="F156">
-        <v>35.099299999999999</v>
+        <v>35.262500000000003</v>
       </c>
       <c r="G156">
-        <v>129.03100000000001</v>
+        <v>129.23400000000001</v>
       </c>
       <c r="H156">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I156">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B157" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C157" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="D157" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E157">
-        <v>291</v>
+        <v>67</v>
       </c>
       <c r="F157">
-        <v>35.099299999999999</v>
+        <v>35.262700000000002</v>
       </c>
       <c r="G157">
-        <v>129.03100000000001</v>
+        <v>129.23400000000001</v>
       </c>
       <c r="H157">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I157">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B158" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C158" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="D158" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E158">
-        <v>298</v>
+        <v>68</v>
       </c>
       <c r="F158">
-        <v>35.0989</v>
+        <v>35.261800000000001</v>
       </c>
       <c r="G158">
-        <v>129.03</v>
+        <v>129.233</v>
       </c>
       <c r="H158">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I158">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B159" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C159" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="D159" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E159">
-        <v>299</v>
+        <v>68</v>
       </c>
       <c r="F159">
-        <v>35.099400000000003</v>
+        <v>35.262099999999997</v>
       </c>
       <c r="G159">
-        <v>129.03200000000001</v>
+        <v>129.233</v>
       </c>
       <c r="H159">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I159">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B160" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C160" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="D160" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E160">
-        <v>309</v>
+        <v>92</v>
       </c>
       <c r="F160">
-        <v>35.096400000000003</v>
+        <v>35.261499999999998</v>
       </c>
       <c r="G160">
-        <v>129.02799999999999</v>
+        <v>129.233</v>
       </c>
       <c r="H160">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I160">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B161" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C161" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="D161" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E161">
-        <v>312</v>
+        <v>131</v>
       </c>
       <c r="F161">
-        <v>35.098500000000001</v>
+        <v>35.262900000000002</v>
       </c>
       <c r="G161">
-        <v>129.029</v>
+        <v>129.233</v>
       </c>
       <c r="H161">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I161">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B162" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C162" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="D162" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E162">
-        <v>341</v>
+        <v>145</v>
       </c>
       <c r="F162">
-        <v>35.0989</v>
+        <v>35.263500000000001</v>
       </c>
       <c r="G162">
-        <v>129.029</v>
+        <v>129.23400000000001</v>
       </c>
       <c r="H162">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I162">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B163" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C163" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="D163" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E163">
-        <v>372</v>
+        <v>162</v>
       </c>
       <c r="F163">
-        <v>35.097099999999998</v>
+        <v>35.263599999999997</v>
       </c>
       <c r="G163">
-        <v>129.036</v>
+        <v>129.23400000000001</v>
       </c>
       <c r="H163">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I163">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B164" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C164" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="D164" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E164">
-        <v>387</v>
+        <v>200</v>
       </c>
       <c r="F164">
-        <v>35.099299999999999</v>
+        <v>35.2639</v>
       </c>
       <c r="G164">
-        <v>129.029</v>
+        <v>129.23400000000001</v>
       </c>
       <c r="H164">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I164">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B165" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C165" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="D165" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E165">
-        <v>388</v>
+        <v>272</v>
       </c>
       <c r="F165">
-        <v>35.099400000000003</v>
+        <v>35.264499999999998</v>
       </c>
       <c r="G165">
-        <v>129.029</v>
+        <v>129.23500000000001</v>
       </c>
       <c r="H165">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I165">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B166" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C166" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="D166" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E166">
-        <v>389</v>
+        <v>302</v>
       </c>
       <c r="F166">
-        <v>35.096499999999999</v>
+        <v>35.264800000000001</v>
       </c>
       <c r="G166">
-        <v>129.036</v>
+        <v>129.23500000000001</v>
       </c>
       <c r="H166">
-        <v>35.096699999999998</v>
+        <v>35.2622</v>
       </c>
       <c r="I166">
-        <v>129.03200000000001</v>
+        <v>129.23400000000001</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C167" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D167" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E167">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="F167">
         <v>35.262099999999997</v>
       </c>
       <c r="G167">
-        <v>129.233</v>
+        <v>129.23400000000001</v>
       </c>
       <c r="H167">
         <v>35.2622</v>
@@ -6056,25 +5960,25 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C168" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="D168" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E168">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F168">
-        <v>35.262500000000003</v>
+        <v>35.259900000000002</v>
       </c>
       <c r="G168">
-        <v>129.233</v>
+        <v>129.23400000000001</v>
       </c>
       <c r="H168">
         <v>35.2622</v>
@@ -6085,900 +5989,30 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C169" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D169" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E169">
-        <v>90</v>
+        <v>296</v>
       </c>
       <c r="F169">
-        <v>35.262999999999998</v>
+        <v>35.264699999999998</v>
       </c>
       <c r="G169">
-        <v>129.23400000000001</v>
+        <v>129.23500000000001</v>
       </c>
       <c r="H169">
         <v>35.2622</v>
       </c>
       <c r="I169">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A170" t="s">
-        <v>232</v>
-      </c>
-      <c r="B170" t="s">
-        <v>10</v>
-      </c>
-      <c r="C170" t="s">
-        <v>133</v>
-      </c>
-      <c r="D170" t="s">
-        <v>236</v>
-      </c>
-      <c r="E170">
-        <v>95</v>
-      </c>
-      <c r="F170">
-        <v>35.261800000000001</v>
-      </c>
-      <c r="G170">
-        <v>129.233</v>
-      </c>
-      <c r="H170">
-        <v>35.2622</v>
-      </c>
-      <c r="I170">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A171" t="s">
-        <v>232</v>
-      </c>
-      <c r="B171" t="s">
-        <v>10</v>
-      </c>
-      <c r="C171" t="s">
-        <v>28</v>
-      </c>
-      <c r="D171" t="s">
-        <v>237</v>
-      </c>
-      <c r="E171">
-        <v>96</v>
-      </c>
-      <c r="F171">
-        <v>35.262599999999999</v>
-      </c>
-      <c r="G171">
-        <v>129.233</v>
-      </c>
-      <c r="H171">
-        <v>35.2622</v>
-      </c>
-      <c r="I171">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A172" t="s">
-        <v>232</v>
-      </c>
-      <c r="B172" t="s">
-        <v>10</v>
-      </c>
-      <c r="C172" t="s">
-        <v>238</v>
-      </c>
-      <c r="D172" t="s">
-        <v>239</v>
-      </c>
-      <c r="E172">
-        <v>99</v>
-      </c>
-      <c r="F172">
-        <v>35.262300000000003</v>
-      </c>
-      <c r="G172">
-        <v>129.233</v>
-      </c>
-      <c r="H172">
-        <v>35.2622</v>
-      </c>
-      <c r="I172">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A173" t="s">
-        <v>232</v>
-      </c>
-      <c r="B173" t="s">
-        <v>10</v>
-      </c>
-      <c r="C173" t="s">
-        <v>78</v>
-      </c>
-      <c r="D173" t="s">
-        <v>240</v>
-      </c>
-      <c r="E173">
-        <v>99</v>
-      </c>
-      <c r="F173">
-        <v>35.261899999999997</v>
-      </c>
-      <c r="G173">
-        <v>129.233</v>
-      </c>
-      <c r="H173">
-        <v>35.2622</v>
-      </c>
-      <c r="I173">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A174" t="s">
-        <v>232</v>
-      </c>
-      <c r="B174" t="s">
-        <v>10</v>
-      </c>
-      <c r="C174" t="s">
-        <v>238</v>
-      </c>
-      <c r="D174" t="s">
-        <v>241</v>
-      </c>
-      <c r="E174">
-        <v>99</v>
-      </c>
-      <c r="F174">
-        <v>35.261800000000001</v>
-      </c>
-      <c r="G174">
-        <v>129.233</v>
-      </c>
-      <c r="H174">
-        <v>35.2622</v>
-      </c>
-      <c r="I174">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A175" t="s">
-        <v>232</v>
-      </c>
-      <c r="B175" t="s">
-        <v>10</v>
-      </c>
-      <c r="C175" t="s">
-        <v>22</v>
-      </c>
-      <c r="D175" t="s">
-        <v>242</v>
-      </c>
-      <c r="E175">
-        <v>99</v>
-      </c>
-      <c r="F175">
-        <v>35.261800000000001</v>
-      </c>
-      <c r="G175">
-        <v>129.233</v>
-      </c>
-      <c r="H175">
-        <v>35.2622</v>
-      </c>
-      <c r="I175">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A176" t="s">
-        <v>232</v>
-      </c>
-      <c r="B176" t="s">
-        <v>10</v>
-      </c>
-      <c r="C176" t="s">
-        <v>24</v>
-      </c>
-      <c r="D176" t="s">
-        <v>243</v>
-      </c>
-      <c r="E176">
-        <v>103</v>
-      </c>
-      <c r="F176">
-        <v>35.261699999999998</v>
-      </c>
-      <c r="G176">
-        <v>129.233</v>
-      </c>
-      <c r="H176">
-        <v>35.2622</v>
-      </c>
-      <c r="I176">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A177" t="s">
-        <v>232</v>
-      </c>
-      <c r="B177" t="s">
-        <v>10</v>
-      </c>
-      <c r="C177" t="s">
-        <v>244</v>
-      </c>
-      <c r="D177" t="s">
-        <v>245</v>
-      </c>
-      <c r="E177">
-        <v>103</v>
-      </c>
-      <c r="F177">
-        <v>35.262</v>
-      </c>
-      <c r="G177">
-        <v>129.233</v>
-      </c>
-      <c r="H177">
-        <v>35.2622</v>
-      </c>
-      <c r="I177">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A178" t="s">
-        <v>232</v>
-      </c>
-      <c r="B178" t="s">
-        <v>10</v>
-      </c>
-      <c r="C178" t="s">
-        <v>32</v>
-      </c>
-      <c r="D178" t="s">
-        <v>246</v>
-      </c>
-      <c r="E178">
-        <v>104</v>
-      </c>
-      <c r="F178">
-        <v>35.262099999999997</v>
-      </c>
-      <c r="G178">
-        <v>129.233</v>
-      </c>
-      <c r="H178">
-        <v>35.2622</v>
-      </c>
-      <c r="I178">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A179" t="s">
-        <v>232</v>
-      </c>
-      <c r="B179" t="s">
-        <v>10</v>
-      </c>
-      <c r="C179" t="s">
-        <v>24</v>
-      </c>
-      <c r="D179" t="s">
-        <v>247</v>
-      </c>
-      <c r="E179">
-        <v>105</v>
-      </c>
-      <c r="F179">
-        <v>35.261699999999998</v>
-      </c>
-      <c r="G179">
-        <v>129.233</v>
-      </c>
-      <c r="H179">
-        <v>35.2622</v>
-      </c>
-      <c r="I179">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A180" t="s">
-        <v>232</v>
-      </c>
-      <c r="B180" t="s">
-        <v>10</v>
-      </c>
-      <c r="C180" t="s">
-        <v>248</v>
-      </c>
-      <c r="D180" t="s">
-        <v>249</v>
-      </c>
-      <c r="E180">
-        <v>109</v>
-      </c>
-      <c r="F180">
-        <v>35.262900000000002</v>
-      </c>
-      <c r="G180">
-        <v>129.233</v>
-      </c>
-      <c r="H180">
-        <v>35.2622</v>
-      </c>
-      <c r="I180">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A181" t="s">
-        <v>232</v>
-      </c>
-      <c r="B181" t="s">
-        <v>10</v>
-      </c>
-      <c r="C181" t="s">
-        <v>80</v>
-      </c>
-      <c r="D181" t="s">
-        <v>250</v>
-      </c>
-      <c r="E181">
-        <v>125</v>
-      </c>
-      <c r="F181">
-        <v>35.262099999999997</v>
-      </c>
-      <c r="G181">
-        <v>129.233</v>
-      </c>
-      <c r="H181">
-        <v>35.2622</v>
-      </c>
-      <c r="I181">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A182" t="s">
-        <v>232</v>
-      </c>
-      <c r="B182" t="s">
-        <v>38</v>
-      </c>
-      <c r="C182" t="s">
-        <v>39</v>
-      </c>
-      <c r="D182" t="s">
-        <v>251</v>
-      </c>
-      <c r="E182">
-        <v>41</v>
-      </c>
-      <c r="F182">
-        <v>35.262300000000003</v>
-      </c>
-      <c r="G182">
-        <v>129.23400000000001</v>
-      </c>
-      <c r="H182">
-        <v>35.2622</v>
-      </c>
-      <c r="I182">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A183" t="s">
-        <v>232</v>
-      </c>
-      <c r="B183" t="s">
-        <v>38</v>
-      </c>
-      <c r="C183" t="s">
-        <v>39</v>
-      </c>
-      <c r="D183" t="s">
-        <v>252</v>
-      </c>
-      <c r="E183">
-        <v>51</v>
-      </c>
-      <c r="F183">
-        <v>35.262500000000003</v>
-      </c>
-      <c r="G183">
-        <v>129.23400000000001</v>
-      </c>
-      <c r="H183">
-        <v>35.2622</v>
-      </c>
-      <c r="I183">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A184" t="s">
-        <v>232</v>
-      </c>
-      <c r="B184" t="s">
-        <v>38</v>
-      </c>
-      <c r="C184" t="s">
-        <v>47</v>
-      </c>
-      <c r="D184" t="s">
-        <v>253</v>
-      </c>
-      <c r="E184">
-        <v>52</v>
-      </c>
-      <c r="F184">
-        <v>35.2622</v>
-      </c>
-      <c r="G184">
-        <v>129.233</v>
-      </c>
-      <c r="H184">
-        <v>35.2622</v>
-      </c>
-      <c r="I184">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A185" t="s">
-        <v>232</v>
-      </c>
-      <c r="B185" t="s">
-        <v>38</v>
-      </c>
-      <c r="C185" t="s">
-        <v>39</v>
-      </c>
-      <c r="D185" t="s">
-        <v>254</v>
-      </c>
-      <c r="E185">
-        <v>52</v>
-      </c>
-      <c r="F185">
-        <v>35.262500000000003</v>
-      </c>
-      <c r="G185">
-        <v>129.23400000000001</v>
-      </c>
-      <c r="H185">
-        <v>35.2622</v>
-      </c>
-      <c r="I185">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A186" t="s">
-        <v>232</v>
-      </c>
-      <c r="B186" t="s">
-        <v>38</v>
-      </c>
-      <c r="C186" t="s">
-        <v>39</v>
-      </c>
-      <c r="D186" t="s">
-        <v>255</v>
-      </c>
-      <c r="E186">
-        <v>67</v>
-      </c>
-      <c r="F186">
-        <v>35.262700000000002</v>
-      </c>
-      <c r="G186">
-        <v>129.23400000000001</v>
-      </c>
-      <c r="H186">
-        <v>35.2622</v>
-      </c>
-      <c r="I186">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A187" t="s">
-        <v>232</v>
-      </c>
-      <c r="B187" t="s">
-        <v>38</v>
-      </c>
-      <c r="C187" t="s">
-        <v>49</v>
-      </c>
-      <c r="D187" t="s">
-        <v>256</v>
-      </c>
-      <c r="E187">
-        <v>68</v>
-      </c>
-      <c r="F187">
-        <v>35.261800000000001</v>
-      </c>
-      <c r="G187">
-        <v>129.233</v>
-      </c>
-      <c r="H187">
-        <v>35.2622</v>
-      </c>
-      <c r="I187">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A188" t="s">
-        <v>232</v>
-      </c>
-      <c r="B188" t="s">
-        <v>38</v>
-      </c>
-      <c r="C188" t="s">
-        <v>39</v>
-      </c>
-      <c r="D188" t="s">
-        <v>257</v>
-      </c>
-      <c r="E188">
-        <v>68</v>
-      </c>
-      <c r="F188">
-        <v>35.262099999999997</v>
-      </c>
-      <c r="G188">
-        <v>129.233</v>
-      </c>
-      <c r="H188">
-        <v>35.2622</v>
-      </c>
-      <c r="I188">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A189" t="s">
-        <v>232</v>
-      </c>
-      <c r="B189" t="s">
-        <v>38</v>
-      </c>
-      <c r="C189" t="s">
-        <v>147</v>
-      </c>
-      <c r="D189" t="s">
-        <v>258</v>
-      </c>
-      <c r="E189">
-        <v>92</v>
-      </c>
-      <c r="F189">
-        <v>35.261499999999998</v>
-      </c>
-      <c r="G189">
-        <v>129.233</v>
-      </c>
-      <c r="H189">
-        <v>35.2622</v>
-      </c>
-      <c r="I189">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A190" t="s">
-        <v>232</v>
-      </c>
-      <c r="B190" t="s">
-        <v>38</v>
-      </c>
-      <c r="C190" t="s">
-        <v>39</v>
-      </c>
-      <c r="D190" t="s">
-        <v>259</v>
-      </c>
-      <c r="E190">
-        <v>131</v>
-      </c>
-      <c r="F190">
-        <v>35.262900000000002</v>
-      </c>
-      <c r="G190">
-        <v>129.233</v>
-      </c>
-      <c r="H190">
-        <v>35.2622</v>
-      </c>
-      <c r="I190">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A191" t="s">
-        <v>232</v>
-      </c>
-      <c r="B191" t="s">
-        <v>38</v>
-      </c>
-      <c r="C191" t="s">
-        <v>39</v>
-      </c>
-      <c r="D191" t="s">
-        <v>260</v>
-      </c>
-      <c r="E191">
-        <v>145</v>
-      </c>
-      <c r="F191">
-        <v>35.263500000000001</v>
-      </c>
-      <c r="G191">
-        <v>129.23400000000001</v>
-      </c>
-      <c r="H191">
-        <v>35.2622</v>
-      </c>
-      <c r="I191">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A192" t="s">
-        <v>232</v>
-      </c>
-      <c r="B192" t="s">
-        <v>38</v>
-      </c>
-      <c r="C192" t="s">
-        <v>39</v>
-      </c>
-      <c r="D192" t="s">
-        <v>261</v>
-      </c>
-      <c r="E192">
-        <v>162</v>
-      </c>
-      <c r="F192">
-        <v>35.263599999999997</v>
-      </c>
-      <c r="G192">
-        <v>129.23400000000001</v>
-      </c>
-      <c r="H192">
-        <v>35.2622</v>
-      </c>
-      <c r="I192">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A193" t="s">
-        <v>232</v>
-      </c>
-      <c r="B193" t="s">
-        <v>38</v>
-      </c>
-      <c r="C193" t="s">
-        <v>39</v>
-      </c>
-      <c r="D193" t="s">
-        <v>262</v>
-      </c>
-      <c r="E193">
-        <v>200</v>
-      </c>
-      <c r="F193">
-        <v>35.2639</v>
-      </c>
-      <c r="G193">
-        <v>129.23400000000001</v>
-      </c>
-      <c r="H193">
-        <v>35.2622</v>
-      </c>
-      <c r="I193">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A194" t="s">
-        <v>232</v>
-      </c>
-      <c r="B194" t="s">
-        <v>38</v>
-      </c>
-      <c r="C194" t="s">
-        <v>39</v>
-      </c>
-      <c r="D194" t="s">
-        <v>263</v>
-      </c>
-      <c r="E194">
-        <v>272</v>
-      </c>
-      <c r="F194">
-        <v>35.264499999999998</v>
-      </c>
-      <c r="G194">
-        <v>129.23500000000001</v>
-      </c>
-      <c r="H194">
-        <v>35.2622</v>
-      </c>
-      <c r="I194">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A195" t="s">
-        <v>232</v>
-      </c>
-      <c r="B195" t="s">
-        <v>38</v>
-      </c>
-      <c r="C195" t="s">
-        <v>264</v>
-      </c>
-      <c r="D195" t="s">
-        <v>265</v>
-      </c>
-      <c r="E195">
-        <v>302</v>
-      </c>
-      <c r="F195">
-        <v>35.264800000000001</v>
-      </c>
-      <c r="G195">
-        <v>129.23500000000001</v>
-      </c>
-      <c r="H195">
-        <v>35.2622</v>
-      </c>
-      <c r="I195">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A196" t="s">
-        <v>232</v>
-      </c>
-      <c r="B196" t="s">
-        <v>38</v>
-      </c>
-      <c r="C196" t="s">
-        <v>39</v>
-      </c>
-      <c r="D196" t="s">
-        <v>266</v>
-      </c>
-      <c r="E196">
-        <v>302</v>
-      </c>
-      <c r="F196">
-        <v>35.2624</v>
-      </c>
-      <c r="G196">
-        <v>129.23099999999999</v>
-      </c>
-      <c r="H196">
-        <v>35.2622</v>
-      </c>
-      <c r="I196">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A197" t="s">
-        <v>232</v>
-      </c>
-      <c r="B197" t="s">
-        <v>61</v>
-      </c>
-      <c r="C197" t="s">
-        <v>62</v>
-      </c>
-      <c r="D197" t="s">
-        <v>267</v>
-      </c>
-      <c r="E197">
-        <v>43</v>
-      </c>
-      <c r="F197">
-        <v>35.262099999999997</v>
-      </c>
-      <c r="G197">
-        <v>129.23400000000001</v>
-      </c>
-      <c r="H197">
-        <v>35.2622</v>
-      </c>
-      <c r="I197">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A198" t="s">
-        <v>232</v>
-      </c>
-      <c r="B198" t="s">
-        <v>61</v>
-      </c>
-      <c r="C198" t="s">
-        <v>174</v>
-      </c>
-      <c r="D198" t="s">
-        <v>268</v>
-      </c>
-      <c r="E198">
-        <v>252</v>
-      </c>
-      <c r="F198">
-        <v>35.259900000000002</v>
-      </c>
-      <c r="G198">
-        <v>129.23400000000001</v>
-      </c>
-      <c r="H198">
-        <v>35.2622</v>
-      </c>
-      <c r="I198">
-        <v>129.23400000000001</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A199" t="s">
-        <v>232</v>
-      </c>
-      <c r="B199" t="s">
-        <v>61</v>
-      </c>
-      <c r="C199" t="s">
-        <v>112</v>
-      </c>
-      <c r="D199" t="s">
-        <v>269</v>
-      </c>
-      <c r="E199">
-        <v>296</v>
-      </c>
-      <c r="F199">
-        <v>35.264699999999998</v>
-      </c>
-      <c r="G199">
-        <v>129.23500000000001</v>
-      </c>
-      <c r="H199">
-        <v>35.2622</v>
-      </c>
-      <c r="I199">
         <v>129.23400000000001</v>
       </c>
     </row>

--- a/mainapp/mappy/항구 근처 가게.xlsx
+++ b/mainapp/mappy/항구 근처 가게.xlsx
@@ -1109,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1193,7 +1193,7 @@
         <v>35.078600000000002</v>
       </c>
       <c r="G3">
-        <v>129.08500000000001</v>
+        <v>129.08000000000001</v>
       </c>
       <c r="H3">
         <v>35.080800000000004</v>
@@ -1973,7 +1973,7 @@
         <v>25</v>
       </c>
       <c r="F30">
-        <v>35.158099999999997</v>
+        <v>35.158200000000001</v>
       </c>
       <c r="G30">
         <v>129.17099999999999</v>
